--- a/HW_Data_Seeds.xlsx
+++ b/HW_Data_Seeds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschwant\Documents\GitHub\HW_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6FE0D-1D26-4881-94ED-D493A9405CB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA85EF81-CEC5-4E30-B3F4-DDB1F156910D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{A8602DBB-A917-4418-8C67-EC2628D0C3AE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="32">
   <si>
     <t>D</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>y_fact=22.984395560859</t>
+  </si>
+  <si>
+    <t>x_max_noise=144.933260913334</t>
+  </si>
+  <si>
+    <t>y_max_noise=82.7438240190924</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1172,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10290444355673614"/>
-          <c:y val="6.1391265829014996E-2"/>
+          <c:x val="9.6415565433187869E-2"/>
+          <c:y val="7.4553875874991959E-2"/>
           <c:w val="0.84459739390675781"/>
           <c:h val="0.75890942393283789"/>
         </c:manualLayout>
@@ -1198,7 +1204,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="4"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -2077,6 +2083,1748 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spread_Seed!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spread_Seed!$J$2:$J$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>0.18983220924688948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20746818470140954</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22876395416092107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25499044135394477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28808407189550844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22808175549046103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22785525920894126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1885139300160083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20602886131894191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22717846140931069</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25322492890144471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28609139550887941</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18040813304786413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1971709148880858</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21741227650875702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24234021206600112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27379526538935117</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17952204202110644</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21655884264611225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.27298998519702949</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.17899455316110321</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2159231513271902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2721894280556893</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19570874957860698</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21389546776844884</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23585624837565874</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2629016968199413</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2970286991835826</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.29674004155561023</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2964519444278863</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.19538713033921365</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.21354537577698138</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.23547176893942703</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26247486130130721</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.29654840947951361</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.29626216584101989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.29597647426354545</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.21997171596930457</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.24255930960677918</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.2703766867748606</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.20049253992159397</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30518455965960889</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.20010808634552188</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3045999149093031</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.21849822122118487</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.24093606374898999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.26856901074102679</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.233684359276632</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.29379913367683108</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37960386103394195</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54265709047038002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93291533683926375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.54212844254980497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.37886461300855939</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5416008236276153</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.93110032645630803</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54107423070235761</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.37812823863925216</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.29237223161914849</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.23232309116434091</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.26951803682121839</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.34823240183686388</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.49781189703568096</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.21395540491346038</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.85540717819153955</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.21374828448276004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.85457949829004776</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.26860574172559532</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.34705423518009343</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.49612847516164732</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.222685879402333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.27997283713498439</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36174152086425282</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.51712504344176147</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88902642167177193</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.22214954539606535</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.36104485929301694</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.5161296150617003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.22182898328149669</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.36052412151519042</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.88646315471836945</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.27862810688937928</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.20782640420702203</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.2612914206854422</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.33760495990581341</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.48262213200208137</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.82971231425630454</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.82931494245828918</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.82891795110239719</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.18943578368711333</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.23817004767726724</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.30773118492908857</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.43991687452756906</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.75629567890366167</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.1889836696449006</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.75557402272150154</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.18880342770914013</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.75485374243292058</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.23726230094957876</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.30655887565316819</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.43824179837515559</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8.7967678537488325E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.11059855210484</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.14290090905885838</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.35136923569748302</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8.7800598426306012E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.11038858807616446</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.14262974983863286</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.35070281704276995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C3A-4790-943E-99827ED11B14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="905308976"/>
+        <c:axId val="670452856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="905308976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="670452856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="670452856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905308976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spread_Seed!$K$2:$K$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000000</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>578.88021387977676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>529.14348905955717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>479.4067642393378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>429.67003941911827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>379.93331459889873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>479.4067642393378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>479.40676423933775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>578.88021387977665</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>529.14348905955717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>479.4067642393378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>429.67003941911821</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>379.93331459889868</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1149.0891848863541</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1050.3607584999372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>951.63233211352031</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>852.90390572710305</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>754.1754793406858</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1149.0891848863541</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>951.63233211352019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>754.17547934068591</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1149.0891848863539</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>951.63233211352008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>754.1754793406858</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1706.5377798341826</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1559.9140087744438</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1413.2902377147052</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1266.6664666549664</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1120.0426955952273</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1120.0426955952273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1120.0426955952273</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2263.65492445359</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2069.1642865530425</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1874.6736486524956</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1680.1830107519481</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1485.6923728514014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1485.6923728514009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1485.6923728514012</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2562.0740036757529</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2321.2524263067521</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2080.4308489377522</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2802.8955810447524</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1839.6092715687516</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2802.8955810447524</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1839.6092715687519</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2562.0740036757525</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2321.252426306753</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2080.4308489377522</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1592.1917652158688</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1265.7924533466157</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>979.19793560775952</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>684.6424590428237</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>398.04794130396721</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>684.64245904282359</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>979.1979356077594</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>684.6424590428237</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>398.04794130396721</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>684.64245904282359</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>979.19793560775952</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1265.792453346616</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1592.1917652158691</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1474.4093469608965</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1140.580815573524</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>797.47926942539038</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1854.6029521520711</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>463.65073803801778</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1854.6029521520711</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>463.65073803801778</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1474.4093469608963</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1140.5808155735238</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>797.4792694253905</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2116.2990629621117</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1682.4577550548788</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1301.5239237216988</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>910.00859707370807</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>529.07476574052782</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2116.2990629621117</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1301.5239237216988</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>910.00859707370807</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2116.2990629621117</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1301.5239237216988</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>529.07476574052782</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1682.457755054879</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2370.0492306976216</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1884.1891384046089</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1457.5802768790372</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1019.1211691999772</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>592.51230767440541</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>592.51230767440529</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>592.51230767440529</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2626.7880640981712</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2088.2965109580464</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1615.4746594203757</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1129.5188675622137</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>656.69701602454279</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2626.7880640981716</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>656.69701602454279</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2626.7880640981712</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>656.69701602454279</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2088.2965109580459</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1615.4746594203759</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1129.5188675622137</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2439.0499759876257</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1939.0447309101623</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1500.0157352323899</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>609.7624939969063</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2439.0499759876252</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1939.0447309101626</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1500.0157352323899</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>609.76249399690641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9530-4A90-8B32-C67A79E7F840}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="305792168"/>
+        <c:axId val="305785608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="305792168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305785608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="305785608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305792168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spread_Seed!$L$2:$L$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>79777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59557</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>98899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88635</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49994</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11352</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27103</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40686</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>88635</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11352</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40686</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11352</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40686</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83418</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>77444</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>71471</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>65497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>59523</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59523</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>59523</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45359</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>55304</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>86525</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75195</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28514</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28514</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28514</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67575</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30675</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>93775</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4475</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56875</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4475</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>56875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67575</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30675</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>93775</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21587</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34662</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>60776</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3967</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7759</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3967</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>60776</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34662</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21587</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69609</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>57352</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42539</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>15207</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15207</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>69609</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>57352</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42539</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>96211</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37217</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73708</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40528</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>96211</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37217</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>73708</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>96211</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37217</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40528</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5488</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69762</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40461</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>87904</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>19998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>74405</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>74405</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>74405</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9817</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95805</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42038</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>56221</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24543</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9817</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>24543</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9817</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>24543</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>95805</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42038</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56221</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>98763</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>91016</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>23239</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>96906</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>98763</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>91016</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>23239</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>96906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DAD-4731-A4B2-6E2F0EDDA920}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1366721888"/>
+        <c:axId val="1366722216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1366721888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366722216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1366722216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1366721888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2118,6 +3866,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3189,20 +5057,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>446233</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214084</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76120</xdr:rowOff>
+      <xdr:rowOff>98531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>515469</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>280145</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:rowOff>148850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3234,16 +6650,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>154881</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34792</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>79296</xdr:rowOff>
+      <xdr:rowOff>95357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>384174</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110378</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>126440</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3265,6 +6681,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>116916</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>73032</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F12359-8C75-41E5-BAE8-319C2B032C28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>123272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>42590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA441C2-53C5-462A-876C-3ADF6728BB6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>11213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>456267</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>87413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38728246-7B88-4FCE-8873-E2ED249E679C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3570,11 +7094,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA154E-035D-4F70-BBA4-134383FCA567}">
-  <dimension ref="A1:AB110"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3582,7 +7106,7 @@
     <col min="1" max="2" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -3608,7 +7132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>15</v>
       </c>
@@ -3628,30 +7152,30 @@
         <v>72</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(LEFT($C2,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C2,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(LEFT($C2,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C2,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X2" t="s">
+      <c r="P2" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="R2" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="S2" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="T2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>15</v>
       </c>
@@ -3671,30 +7195,30 @@
         <v>72</v>
       </c>
       <c r="G3">
-        <f>VLOOKUP(LEFT($C3,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C3,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H3">
-        <f>VLOOKUP(LEFT($C3,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C3,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Q3" s="1">
         <v>33</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="R3" s="1">
         <v>41</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="S3" s="1">
         <v>21</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="T3" s="1">
         <v>100001</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>15</v>
       </c>
@@ -3714,30 +7238,30 @@
         <v>72</v>
       </c>
       <c r="G4">
-        <f>VLOOKUP(LEFT($C4,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C4,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H4">
-        <f>VLOOKUP(LEFT($C4,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C4,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Q4" s="1">
         <v>68</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="R4" s="1">
         <v>104</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="S4" s="1">
         <v>44</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="T4" s="1">
         <v>1000100</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>15</v>
       </c>
@@ -3757,30 +7281,30 @@
         <v>72</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(LEFT($C5,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C5,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H5">
-        <f>VLOOKUP(LEFT($C5,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C5,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Q5" s="1">
         <v>69</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="R5" s="1">
         <v>105</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="S5" s="1">
         <v>45</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="T5" s="1">
         <v>1000101</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3800,30 +7324,30 @@
         <v>72</v>
       </c>
       <c r="G6">
-        <f>VLOOKUP(LEFT($C6,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C6,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H6">
-        <f>VLOOKUP(LEFT($C6,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C6,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Q6" s="1">
         <v>72</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="R6" s="1">
         <v>110</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="S6" s="1">
         <v>48</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="T6" s="1">
         <v>1001000</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>20</v>
       </c>
@@ -3843,30 +7367,30 @@
         <v>72</v>
       </c>
       <c r="G7">
-        <f>VLOOKUP(LEFT($C7,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C7,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H7">
-        <f>VLOOKUP(LEFT($C7,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C7,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Q7" s="1">
         <v>76</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="R7" s="1">
         <v>114</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="T7" s="1">
         <v>1001100</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>25</v>
       </c>
@@ -3886,30 +7410,30 @@
         <v>72</v>
       </c>
       <c r="G8">
-        <f>VLOOKUP(LEFT($C8,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C8,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H8">
-        <f>VLOOKUP(LEFT($C8,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C8,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Q8" s="1">
         <v>79</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="R8" s="1">
         <v>117</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="T8" s="1">
         <v>1001111</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>30</v>
       </c>
@@ -3929,30 +7453,30 @@
         <v>72</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(LEFT($C9,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C9,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H9">
-        <f>VLOOKUP(LEFT($C9,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C9,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Q9" s="1">
         <v>82</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="R9" s="1">
         <v>122</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="S9" s="1">
         <v>52</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="T9" s="1">
         <v>1010010</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>30</v>
       </c>
@@ -3972,30 +7496,30 @@
         <v>72</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(LEFT($C10,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C10,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H10">
-        <f>VLOOKUP(LEFT($C10,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C10,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Q10" s="1">
         <v>87</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="R10" s="1">
         <v>127</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="S10" s="1">
         <v>57</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="T10" s="1">
         <v>1010111</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>30</v>
       </c>
@@ -4015,15 +7539,15 @@
         <v>72</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(LEFT($C11,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C11,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H11">
-        <f>VLOOKUP(LEFT($C11,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C11,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>30</v>
       </c>
@@ -4043,15 +7567,15 @@
         <v>72</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(LEFT($C12,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C12,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H12">
-        <f>VLOOKUP(LEFT($C12,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C12,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>30</v>
       </c>
@@ -4071,15 +7595,15 @@
         <v>72</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(LEFT($C13,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C13,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H13">
-        <f>VLOOKUP(LEFT($C13,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C13,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>40</v>
       </c>
@@ -4099,15 +7623,15 @@
         <v>69</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(LEFT($C14,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C14,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H14">
-        <f>VLOOKUP(LEFT($C14,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C14,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>40</v>
       </c>
@@ -4127,15 +7651,15 @@
         <v>69</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(LEFT($C15,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C15,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H15">
-        <f>VLOOKUP(LEFT($C15,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C15,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>40</v>
       </c>
@@ -4155,11 +7679,11 @@
         <v>69</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(LEFT($C16,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C16,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H16">
-        <f>VLOOKUP(LEFT($C16,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C16,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4183,11 +7707,11 @@
         <v>69</v>
       </c>
       <c r="G17">
-        <f>VLOOKUP(LEFT($C17,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C17,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H17">
-        <f>VLOOKUP(LEFT($C17,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C17,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4211,11 +7735,11 @@
         <v>69</v>
       </c>
       <c r="G18">
-        <f>VLOOKUP(LEFT($C18,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C18,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H18">
-        <f>VLOOKUP(LEFT($C18,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C18,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4239,11 +7763,11 @@
         <v>69</v>
       </c>
       <c r="G19">
-        <f>VLOOKUP(LEFT($C19,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C19,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H19">
-        <f>VLOOKUP(LEFT($C19,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C19,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4267,11 +7791,11 @@
         <v>69</v>
       </c>
       <c r="G20">
-        <f>VLOOKUP(LEFT($C20,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C20,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H20">
-        <f>VLOOKUP(LEFT($C20,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C20,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4295,11 +7819,11 @@
         <v>69</v>
       </c>
       <c r="G21">
-        <f>VLOOKUP(LEFT($C21,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C21,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H21">
-        <f>VLOOKUP(LEFT($C21,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C21,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4323,11 +7847,11 @@
         <v>69</v>
       </c>
       <c r="G22">
-        <f>VLOOKUP(LEFT($C22,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C22,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H22">
-        <f>VLOOKUP(LEFT($C22,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C22,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4351,11 +7875,11 @@
         <v>69</v>
       </c>
       <c r="G23">
-        <f>VLOOKUP(LEFT($C23,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C23,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H23">
-        <f>VLOOKUP(LEFT($C23,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C23,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4379,11 +7903,11 @@
         <v>69</v>
       </c>
       <c r="G24">
-        <f>VLOOKUP(LEFT($C24,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C24,1),$P$3:$T$10,3,FALSE)</f>
         <v>105</v>
       </c>
       <c r="H24">
-        <f>VLOOKUP(LEFT($C24,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C24,1),$P$3:$T$10,4,FALSE)</f>
         <v>45</v>
       </c>
     </row>
@@ -4407,11 +7931,11 @@
         <v>76</v>
       </c>
       <c r="G25">
-        <f>VLOOKUP(LEFT($C25,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C25,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H25" t="str">
-        <f>VLOOKUP(LEFT($C25,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C25,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4435,11 +7959,11 @@
         <v>76</v>
       </c>
       <c r="G26">
-        <f>VLOOKUP(LEFT($C26,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C26,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H26" t="str">
-        <f>VLOOKUP(LEFT($C26,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C26,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4463,11 +7987,11 @@
         <v>76</v>
       </c>
       <c r="G27">
-        <f>VLOOKUP(LEFT($C27,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C27,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H27" t="str">
-        <f>VLOOKUP(LEFT($C27,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C27,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4491,11 +8015,11 @@
         <v>76</v>
       </c>
       <c r="G28">
-        <f>VLOOKUP(LEFT($C28,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C28,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H28" t="str">
-        <f>VLOOKUP(LEFT($C28,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C28,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4519,11 +8043,11 @@
         <v>76</v>
       </c>
       <c r="G29">
-        <f>VLOOKUP(LEFT($C29,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C29,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H29" t="str">
-        <f>VLOOKUP(LEFT($C29,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C29,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4547,11 +8071,11 @@
         <v>76</v>
       </c>
       <c r="G30">
-        <f>VLOOKUP(LEFT($C30,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C30,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H30" t="str">
-        <f>VLOOKUP(LEFT($C30,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C30,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4575,11 +8099,11 @@
         <v>76</v>
       </c>
       <c r="G31">
-        <f>VLOOKUP(LEFT($C31,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C31,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H31" t="str">
-        <f>VLOOKUP(LEFT($C31,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C31,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4603,11 +8127,11 @@
         <v>76</v>
       </c>
       <c r="G32">
-        <f>VLOOKUP(LEFT($C32,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C32,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H32" t="str">
-        <f>VLOOKUP(LEFT($C32,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C32,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4631,11 +8155,11 @@
         <v>76</v>
       </c>
       <c r="G33">
-        <f>VLOOKUP(LEFT($C33,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C33,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H33" t="str">
-        <f>VLOOKUP(LEFT($C33,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C33,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4659,11 +8183,11 @@
         <v>76</v>
       </c>
       <c r="G34">
-        <f>VLOOKUP(LEFT($C34,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C34,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H34" t="str">
-        <f>VLOOKUP(LEFT($C34,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C34,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4687,11 +8211,11 @@
         <v>76</v>
       </c>
       <c r="G35">
-        <f>VLOOKUP(LEFT($C35,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C35,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H35" t="str">
-        <f>VLOOKUP(LEFT($C35,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C35,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4715,11 +8239,11 @@
         <v>76</v>
       </c>
       <c r="G36">
-        <f>VLOOKUP(LEFT($C36,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C36,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H36" t="str">
-        <f>VLOOKUP(LEFT($C36,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C36,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4743,11 +8267,11 @@
         <v>76</v>
       </c>
       <c r="G37">
-        <f>VLOOKUP(LEFT($C37,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C37,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H37" t="str">
-        <f>VLOOKUP(LEFT($C37,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C37,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4771,11 +8295,11 @@
         <v>76</v>
       </c>
       <c r="G38">
-        <f>VLOOKUP(LEFT($C38,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C38,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H38" t="str">
-        <f>VLOOKUP(LEFT($C38,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C38,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -4799,11 +8323,11 @@
         <v>79</v>
       </c>
       <c r="G39">
-        <f>VLOOKUP(LEFT($C39,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C39,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H39" t="str">
-        <f>VLOOKUP(LEFT($C39,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C39,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -4827,11 +8351,11 @@
         <v>79</v>
       </c>
       <c r="G40">
-        <f>VLOOKUP(LEFT($C40,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C40,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H40" t="str">
-        <f>VLOOKUP(LEFT($C40,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C40,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -4855,11 +8379,11 @@
         <v>79</v>
       </c>
       <c r="G41">
-        <f>VLOOKUP(LEFT($C41,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C41,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H41" t="str">
-        <f>VLOOKUP(LEFT($C41,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C41,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -4883,11 +8407,11 @@
         <v>79</v>
       </c>
       <c r="G42">
-        <f>VLOOKUP(LEFT($C42,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C42,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H42" t="str">
-        <f>VLOOKUP(LEFT($C42,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C42,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -4911,11 +8435,11 @@
         <v>79</v>
       </c>
       <c r="G43">
-        <f>VLOOKUP(LEFT($C43,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C43,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H43" t="str">
-        <f>VLOOKUP(LEFT($C43,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C43,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -4939,11 +8463,11 @@
         <v>79</v>
       </c>
       <c r="G44">
-        <f>VLOOKUP(LEFT($C44,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C44,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H44" t="str">
-        <f>VLOOKUP(LEFT($C44,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C44,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -4967,11 +8491,11 @@
         <v>79</v>
       </c>
       <c r="G45">
-        <f>VLOOKUP(LEFT($C45,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C45,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H45" t="str">
-        <f>VLOOKUP(LEFT($C45,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C45,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -4995,11 +8519,11 @@
         <v>79</v>
       </c>
       <c r="G46">
-        <f>VLOOKUP(LEFT($C46,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C46,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H46" t="str">
-        <f>VLOOKUP(LEFT($C46,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C46,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5023,11 +8547,11 @@
         <v>79</v>
       </c>
       <c r="G47">
-        <f>VLOOKUP(LEFT($C47,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C47,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H47" t="str">
-        <f>VLOOKUP(LEFT($C47,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C47,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5051,11 +8575,11 @@
         <v>79</v>
       </c>
       <c r="G48">
-        <f>VLOOKUP(LEFT($C48,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C48,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H48" t="str">
-        <f>VLOOKUP(LEFT($C48,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C48,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5079,11 +8603,11 @@
         <v>87</v>
       </c>
       <c r="G49">
-        <f>VLOOKUP(LEFT($C49,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C49,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H49">
-        <f>VLOOKUP(LEFT($C49,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C49,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5107,11 +8631,11 @@
         <v>87</v>
       </c>
       <c r="G50">
-        <f>VLOOKUP(LEFT($C50,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C50,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H50">
-        <f>VLOOKUP(LEFT($C50,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C50,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5135,11 +8659,11 @@
         <v>87</v>
       </c>
       <c r="G51">
-        <f>VLOOKUP(LEFT($C51,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C51,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H51">
-        <f>VLOOKUP(LEFT($C51,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C51,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5163,11 +8687,11 @@
         <v>87</v>
       </c>
       <c r="G52">
-        <f>VLOOKUP(LEFT($C52,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C52,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H52">
-        <f>VLOOKUP(LEFT($C52,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C52,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5191,11 +8715,11 @@
         <v>87</v>
       </c>
       <c r="G53">
-        <f>VLOOKUP(LEFT($C53,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C53,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H53">
-        <f>VLOOKUP(LEFT($C53,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C53,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5219,11 +8743,11 @@
         <v>87</v>
       </c>
       <c r="G54">
-        <f>VLOOKUP(LEFT($C54,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C54,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H54">
-        <f>VLOOKUP(LEFT($C54,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C54,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5247,11 +8771,11 @@
         <v>87</v>
       </c>
       <c r="G55">
-        <f>VLOOKUP(LEFT($C55,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C55,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H55">
-        <f>VLOOKUP(LEFT($C55,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C55,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5275,11 +8799,11 @@
         <v>87</v>
       </c>
       <c r="G56">
-        <f>VLOOKUP(LEFT($C56,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C56,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H56">
-        <f>VLOOKUP(LEFT($C56,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C56,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5303,11 +8827,11 @@
         <v>87</v>
       </c>
       <c r="G57">
-        <f>VLOOKUP(LEFT($C57,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C57,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H57">
-        <f>VLOOKUP(LEFT($C57,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C57,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5331,11 +8855,11 @@
         <v>87</v>
       </c>
       <c r="G58">
-        <f>VLOOKUP(LEFT($C58,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C58,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H58">
-        <f>VLOOKUP(LEFT($C58,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C58,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5359,11 +8883,11 @@
         <v>87</v>
       </c>
       <c r="G59">
-        <f>VLOOKUP(LEFT($C59,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C59,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H59">
-        <f>VLOOKUP(LEFT($C59,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C59,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5387,11 +8911,11 @@
         <v>87</v>
       </c>
       <c r="G60">
-        <f>VLOOKUP(LEFT($C60,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C60,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H60">
-        <f>VLOOKUP(LEFT($C60,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C60,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5415,11 +8939,11 @@
         <v>87</v>
       </c>
       <c r="G61">
-        <f>VLOOKUP(LEFT($C61,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C61,1),$P$3:$T$10,3,FALSE)</f>
         <v>127</v>
       </c>
       <c r="H61">
-        <f>VLOOKUP(LEFT($C61,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C61,1),$P$3:$T$10,4,FALSE)</f>
         <v>57</v>
       </c>
     </row>
@@ -5443,11 +8967,11 @@
         <v>79</v>
       </c>
       <c r="G62">
-        <f>VLOOKUP(LEFT($C62,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C62,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H62" t="str">
-        <f>VLOOKUP(LEFT($C62,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C62,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5471,11 +8995,11 @@
         <v>79</v>
       </c>
       <c r="G63">
-        <f>VLOOKUP(LEFT($C63,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C63,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H63" t="str">
-        <f>VLOOKUP(LEFT($C63,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C63,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5499,11 +9023,11 @@
         <v>79</v>
       </c>
       <c r="G64">
-        <f>VLOOKUP(LEFT($C64,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C64,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H64" t="str">
-        <f>VLOOKUP(LEFT($C64,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C64,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5527,11 +9051,11 @@
         <v>79</v>
       </c>
       <c r="G65">
-        <f>VLOOKUP(LEFT($C65,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C65,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H65" t="str">
-        <f>VLOOKUP(LEFT($C65,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C65,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5555,11 +9079,11 @@
         <v>79</v>
       </c>
       <c r="G66">
-        <f>VLOOKUP(LEFT($C66,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C66,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H66" t="str">
-        <f>VLOOKUP(LEFT($C66,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C66,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5583,11 +9107,11 @@
         <v>79</v>
       </c>
       <c r="G67">
-        <f>VLOOKUP(LEFT($C67,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C67,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H67" t="str">
-        <f>VLOOKUP(LEFT($C67,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C67,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5611,11 +9135,11 @@
         <v>79</v>
       </c>
       <c r="G68">
-        <f>VLOOKUP(LEFT($C68,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C68,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H68" t="str">
-        <f>VLOOKUP(LEFT($C68,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C68,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5639,11 +9163,11 @@
         <v>79</v>
       </c>
       <c r="G69">
-        <f>VLOOKUP(LEFT($C69,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C69,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H69" t="str">
-        <f>VLOOKUP(LEFT($C69,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C69,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5667,11 +9191,11 @@
         <v>79</v>
       </c>
       <c r="G70">
-        <f>VLOOKUP(LEFT($C70,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C70,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H70" t="str">
-        <f>VLOOKUP(LEFT($C70,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C70,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5695,11 +9219,11 @@
         <v>79</v>
       </c>
       <c r="G71">
-        <f>VLOOKUP(LEFT($C71,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C71,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H71" t="str">
-        <f>VLOOKUP(LEFT($C71,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C71,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -5723,11 +9247,11 @@
         <v>82</v>
       </c>
       <c r="G72">
-        <f>VLOOKUP(LEFT($C72,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C72,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H72">
-        <f>VLOOKUP(LEFT($C72,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C72,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5751,11 +9275,11 @@
         <v>82</v>
       </c>
       <c r="G73">
-        <f>VLOOKUP(LEFT($C73,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C73,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H73">
-        <f>VLOOKUP(LEFT($C73,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C73,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5779,11 +9303,11 @@
         <v>82</v>
       </c>
       <c r="G74">
-        <f>VLOOKUP(LEFT($C74,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C74,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H74">
-        <f>VLOOKUP(LEFT($C74,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C74,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5807,11 +9331,11 @@
         <v>82</v>
       </c>
       <c r="G75">
-        <f>VLOOKUP(LEFT($C75,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C75,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H75">
-        <f>VLOOKUP(LEFT($C75,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C75,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5835,11 +9359,11 @@
         <v>82</v>
       </c>
       <c r="G76">
-        <f>VLOOKUP(LEFT($C76,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C76,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H76">
-        <f>VLOOKUP(LEFT($C76,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C76,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5863,11 +9387,11 @@
         <v>82</v>
       </c>
       <c r="G77">
-        <f>VLOOKUP(LEFT($C77,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C77,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H77">
-        <f>VLOOKUP(LEFT($C77,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C77,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5891,11 +9415,11 @@
         <v>82</v>
       </c>
       <c r="G78">
-        <f>VLOOKUP(LEFT($C78,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C78,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H78">
-        <f>VLOOKUP(LEFT($C78,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C78,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5919,11 +9443,11 @@
         <v>82</v>
       </c>
       <c r="G79">
-        <f>VLOOKUP(LEFT($C79,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C79,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H79">
-        <f>VLOOKUP(LEFT($C79,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C79,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5947,11 +9471,11 @@
         <v>82</v>
       </c>
       <c r="G80">
-        <f>VLOOKUP(LEFT($C80,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C80,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H80">
-        <f>VLOOKUP(LEFT($C80,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C80,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -5975,11 +9499,11 @@
         <v>82</v>
       </c>
       <c r="G81">
-        <f>VLOOKUP(LEFT($C81,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C81,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H81">
-        <f>VLOOKUP(LEFT($C81,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C81,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -6003,11 +9527,11 @@
         <v>82</v>
       </c>
       <c r="G82">
-        <f>VLOOKUP(LEFT($C82,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C82,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H82">
-        <f>VLOOKUP(LEFT($C82,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C82,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -6031,11 +9555,11 @@
         <v>82</v>
       </c>
       <c r="G83">
-        <f>VLOOKUP(LEFT($C83,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C83,1),$P$3:$T$10,3,FALSE)</f>
         <v>122</v>
       </c>
       <c r="H83">
-        <f>VLOOKUP(LEFT($C83,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C83,1),$P$3:$T$10,4,FALSE)</f>
         <v>52</v>
       </c>
     </row>
@@ -6059,11 +9583,11 @@
         <v>76</v>
       </c>
       <c r="G84">
-        <f>VLOOKUP(LEFT($C84,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C84,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H84" t="str">
-        <f>VLOOKUP(LEFT($C84,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C84,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -6087,11 +9611,11 @@
         <v>76</v>
       </c>
       <c r="G85">
-        <f>VLOOKUP(LEFT($C85,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C85,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H85" t="str">
-        <f>VLOOKUP(LEFT($C85,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C85,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -6115,11 +9639,11 @@
         <v>76</v>
       </c>
       <c r="G86">
-        <f>VLOOKUP(LEFT($C86,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C86,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H86" t="str">
-        <f>VLOOKUP(LEFT($C86,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C86,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -6143,11 +9667,11 @@
         <v>76</v>
       </c>
       <c r="G87">
-        <f>VLOOKUP(LEFT($C87,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C87,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H87" t="str">
-        <f>VLOOKUP(LEFT($C87,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C87,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -6171,11 +9695,11 @@
         <v>76</v>
       </c>
       <c r="G88">
-        <f>VLOOKUP(LEFT($C88,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C88,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H88" t="str">
-        <f>VLOOKUP(LEFT($C88,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C88,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -6199,11 +9723,11 @@
         <v>76</v>
       </c>
       <c r="G89">
-        <f>VLOOKUP(LEFT($C89,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C89,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H89" t="str">
-        <f>VLOOKUP(LEFT($C89,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C89,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -6227,11 +9751,11 @@
         <v>76</v>
       </c>
       <c r="G90">
-        <f>VLOOKUP(LEFT($C90,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C90,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H90" t="str">
-        <f>VLOOKUP(LEFT($C90,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C90,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -6255,11 +9779,11 @@
         <v>68</v>
       </c>
       <c r="G91">
-        <f>VLOOKUP(LEFT($C91,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C91,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H91">
-        <f>VLOOKUP(LEFT($C91,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C91,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6283,11 +9807,11 @@
         <v>68</v>
       </c>
       <c r="G92">
-        <f>VLOOKUP(LEFT($C92,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C92,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H92">
-        <f>VLOOKUP(LEFT($C92,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C92,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6311,11 +9835,11 @@
         <v>68</v>
       </c>
       <c r="G93">
-        <f>VLOOKUP(LEFT($C93,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C93,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H93">
-        <f>VLOOKUP(LEFT($C93,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C93,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6339,11 +9863,11 @@
         <v>68</v>
       </c>
       <c r="G94">
-        <f>VLOOKUP(LEFT($C94,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C94,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H94">
-        <f>VLOOKUP(LEFT($C94,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C94,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6367,11 +9891,11 @@
         <v>68</v>
       </c>
       <c r="G95">
-        <f>VLOOKUP(LEFT($C95,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C95,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H95">
-        <f>VLOOKUP(LEFT($C95,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C95,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6395,11 +9919,11 @@
         <v>68</v>
       </c>
       <c r="G96">
-        <f>VLOOKUP(LEFT($C96,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C96,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H96">
-        <f>VLOOKUP(LEFT($C96,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C96,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6423,11 +9947,11 @@
         <v>68</v>
       </c>
       <c r="G97">
-        <f>VLOOKUP(LEFT($C97,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C97,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H97">
-        <f>VLOOKUP(LEFT($C97,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C97,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6451,11 +9975,11 @@
         <v>68</v>
       </c>
       <c r="G98">
-        <f>VLOOKUP(LEFT($C98,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C98,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H98">
-        <f>VLOOKUP(LEFT($C98,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C98,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6479,11 +10003,11 @@
         <v>68</v>
       </c>
       <c r="G99">
-        <f>VLOOKUP(LEFT($C99,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C99,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H99">
-        <f>VLOOKUP(LEFT($C99,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C99,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6507,11 +10031,11 @@
         <v>68</v>
       </c>
       <c r="G100">
-        <f>VLOOKUP(LEFT($C100,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C100,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H100">
-        <f>VLOOKUP(LEFT($C100,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C100,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6535,11 +10059,11 @@
         <v>68</v>
       </c>
       <c r="G101">
-        <f>VLOOKUP(LEFT($C101,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C101,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H101">
-        <f>VLOOKUP(LEFT($C101,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C101,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6563,11 +10087,11 @@
         <v>68</v>
       </c>
       <c r="G102">
-        <f>VLOOKUP(LEFT($C102,1),$X$3:$AB$10,3,FALSE)</f>
+        <f>VLOOKUP(LEFT($C102,1),$P$3:$T$10,3,FALSE)</f>
         <v>104</v>
       </c>
       <c r="H102">
-        <f>VLOOKUP(LEFT($C102,1),$X$3:$AB$10,4,FALSE)</f>
+        <f>VLOOKUP(LEFT($C102,1),$P$3:$T$10,4,FALSE)</f>
         <v>44</v>
       </c>
     </row>
@@ -6780,6 +10304,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState ref="A2:E115">
     <sortCondition ref="D2:D115"/>
     <sortCondition ref="A2:A115"/>
@@ -6793,21 +10318,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFE060A-47DF-4702-B9ED-44C0D400776D}">
-  <dimension ref="A1:S110"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="13" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -6832,11 +10356,11 @@
       <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1086.9994568500051</v>
       </c>
@@ -6855,19 +10379,33 @@
       <c r="F2">
         <v>72</v>
       </c>
-      <c r="G2" t="e">
-        <f>VLOOKUP(LEFT($C2,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" t="e">
-        <f>VLOOKUP(LEFT($C2,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="I2">
+        <f>SUM(A2:B2)/F2</f>
+        <v>28.472855984027735</v>
+      </c>
+      <c r="J2">
+        <f>(D2+F2+G2)/(E2*B2)</f>
+        <v>0.18983220924688948</v>
+      </c>
+      <c r="K2" s="2">
+        <f>((D2/E2)*G2)/J2</f>
+        <v>578.88021387977676</v>
+      </c>
+      <c r="L2">
+        <f>RIGHT(K2,5)*1</f>
+        <v>79777</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1086.9994568500051</v>
       </c>
@@ -6886,16 +10424,33 @@
       <c r="F3">
         <v>72</v>
       </c>
-      <c r="G3" t="e">
-        <f>VLOOKUP(LEFT($C3,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H3" t="e">
-        <f>VLOOKUP(LEFT($C3,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3">
+        <v>48</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">SUM(A3:B3)/F3</f>
+        <v>27.323636205984787</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">(D3+F3+G3)/(E3*B3)</f>
+        <v>0.20746818470140954</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:K66" si="2">((D3/E3)*G3)/J3</f>
+        <v>529.14348905955717</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="3">RIGHT(K3,5)*1</f>
+        <v>59557</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1086.9994568500051</v>
       </c>
@@ -6914,16 +10469,33 @@
       <c r="F4">
         <v>72</v>
       </c>
-      <c r="G4" t="e">
-        <f>VLOOKUP(LEFT($C4,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" t="e">
-        <f>VLOOKUP(LEFT($C4,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>26.174416427941839</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0.22876395416092107</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="2"/>
+        <v>479.4067642393378</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>39338</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1086.9994568500051</v>
       </c>
@@ -6942,16 +10514,30 @@
       <c r="F5">
         <v>72</v>
       </c>
-      <c r="G5" t="e">
-        <f>VLOOKUP(LEFT($C5,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H5" t="e">
-        <f>VLOOKUP(LEFT($C5,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>25.025196649898888</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0.25499044135394477</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="2"/>
+        <v>429.67003941911827</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>19118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1086.9994568500051</v>
       </c>
@@ -6970,16 +10556,30 @@
       <c r="F6">
         <v>72</v>
       </c>
-      <c r="G6" t="e">
-        <f>VLOOKUP(LEFT($C6,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" t="e">
-        <f>VLOOKUP(LEFT($C6,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <v>110</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>23.87597687185594</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.28808407189550844</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="2"/>
+        <v>379.93331459889873</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="3"/>
+        <v>98899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1449.3326091333402</v>
       </c>
@@ -6998,16 +10598,30 @@
       <c r="F7">
         <v>72</v>
       </c>
-      <c r="G7" t="e">
-        <f>VLOOKUP(LEFT($C7,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" t="e">
-        <f>VLOOKUP(LEFT($C7,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <v>110</v>
+      </c>
+      <c r="H7">
+        <v>48</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>31.20682132076594</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0.22808175549046103</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="2"/>
+        <v>479.4067642393378</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="3"/>
+        <v>39338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1811.6657614166752</v>
       </c>
@@ -7026,16 +10640,30 @@
       <c r="F8">
         <v>72</v>
       </c>
-      <c r="G8" t="e">
-        <f>VLOOKUP(LEFT($C8,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" t="e">
-        <f>VLOOKUP(LEFT($C8,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>110</v>
+      </c>
+      <c r="H8">
+        <v>48</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>36.239226213590037</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.22785525920894126</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
+        <v>479.40676423933775</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>39338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2173.9989137000102</v>
       </c>
@@ -7054,16 +10682,30 @@
       <c r="F9">
         <v>72</v>
       </c>
-      <c r="G9" t="e">
-        <f>VLOOKUP(LEFT($C9,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" t="e">
-        <f>VLOOKUP(LEFT($C9,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <v>110</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>43.570070662500029</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.1885139300160083</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="2"/>
+        <v>578.88021387977665</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>79777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2173.9989137000102</v>
       </c>
@@ -7082,16 +10724,30 @@
       <c r="F10">
         <v>72</v>
       </c>
-      <c r="G10" t="e">
-        <f>VLOOKUP(LEFT($C10,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" t="e">
-        <f>VLOOKUP(LEFT($C10,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>110</v>
+      </c>
+      <c r="H10">
+        <v>48</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>42.420850884457082</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.20602886131894191</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="2"/>
+        <v>529.14348905955717</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>59557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2173.9989137000102</v>
       </c>
@@ -7110,16 +10766,30 @@
       <c r="F11">
         <v>72</v>
       </c>
-      <c r="G11" t="e">
-        <f>VLOOKUP(LEFT($C11,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" t="e">
-        <f>VLOOKUP(LEFT($C11,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11">
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>41.271631106414134</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.22717846140931069</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>479.4067642393378</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>39338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2173.9989137000102</v>
       </c>
@@ -7138,16 +10808,30 @@
       <c r="F12">
         <v>72</v>
       </c>
-      <c r="G12" t="e">
-        <f>VLOOKUP(LEFT($C12,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" t="e">
-        <f>VLOOKUP(LEFT($C12,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>110</v>
+      </c>
+      <c r="H12">
+        <v>48</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>40.122411328371186</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.25322492890144471</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="2"/>
+        <v>429.67003941911821</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>19118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2173.9989137000102</v>
       </c>
@@ -7166,16 +10850,30 @@
       <c r="F13">
         <v>72</v>
       </c>
-      <c r="G13" t="e">
-        <f>VLOOKUP(LEFT($C13,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" t="e">
-        <f>VLOOKUP(LEFT($C13,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>110</v>
+      </c>
+      <c r="H13">
+        <v>48</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>38.973191550328231</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.28609139550887941</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="2"/>
+        <v>379.93331459889868</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>98899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2898.6652182666803</v>
       </c>
@@ -7194,16 +10892,30 @@
       <c r="F14">
         <v>69</v>
       </c>
-      <c r="G14" t="e">
-        <f>VLOOKUP(LEFT($C14,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" t="e">
-        <f>VLOOKUP(LEFT($C14,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>45</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>55.966831771980758</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.18040813304786413</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="2"/>
+        <v>1149.0891848863541</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>88635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2898.6652182666803</v>
       </c>
@@ -7222,16 +10934,30 @@
       <c r="F15">
         <v>69</v>
       </c>
-      <c r="G15" t="e">
-        <f>VLOOKUP(LEFT($C15,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" t="e">
-        <f>VLOOKUP(LEFT($C15,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <v>105</v>
+      </c>
+      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>54.767645916631594</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.1971709148880858</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="2"/>
+        <v>1050.3607584999372</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>49994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2898.6652182666803</v>
       </c>
@@ -7250,16 +10976,30 @@
       <c r="F16">
         <v>69</v>
       </c>
-      <c r="G16" t="e">
-        <f>VLOOKUP(LEFT($C16,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" t="e">
-        <f>VLOOKUP(LEFT($C16,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <v>105</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>53.56846006128243</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.21741227650875702</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="2"/>
+        <v>951.63233211352031</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>11352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2898.6652182666803</v>
       </c>
@@ -7278,16 +11018,30 @@
       <c r="F17">
         <v>69</v>
       </c>
-      <c r="G17" t="e">
-        <f>VLOOKUP(LEFT($C17,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" t="e">
-        <f>VLOOKUP(LEFT($C17,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <v>105</v>
+      </c>
+      <c r="H17">
+        <v>45</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>52.369274205933266</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.24234021206600112</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="2"/>
+        <v>852.90390572710305</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>27103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2898.6652182666803</v>
       </c>
@@ -7306,16 +11060,30 @@
       <c r="F18">
         <v>69</v>
       </c>
-      <c r="G18" t="e">
-        <f>VLOOKUP(LEFT($C18,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" t="e">
-        <f>VLOOKUP(LEFT($C18,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <v>105</v>
+      </c>
+      <c r="H18">
+        <v>45</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>51.170088350584095</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0.27379526538935117</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="2"/>
+        <v>754.1754793406858</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>40686</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3260.9983705500154</v>
       </c>
@@ -7334,16 +11102,30 @@
       <c r="F19">
         <v>69</v>
       </c>
-      <c r="G19" t="e">
-        <f>VLOOKUP(LEFT($C19,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" t="e">
-        <f>VLOOKUP(LEFT($C19,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>45</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>61.218036877536335</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.17952204202110644</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="2"/>
+        <v>1149.0891848863541</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>88635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3260.9983705500154</v>
       </c>
@@ -7362,16 +11144,30 @@
       <c r="F20">
         <v>69</v>
       </c>
-      <c r="G20" t="e">
-        <f>VLOOKUP(LEFT($C20,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" t="e">
-        <f>VLOOKUP(LEFT($C20,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G20">
+        <v>105</v>
+      </c>
+      <c r="H20">
+        <v>45</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>58.819665166838014</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.21655884264611225</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="2"/>
+        <v>951.63233211352019</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>11352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3260.9983705500154</v>
       </c>
@@ -7390,16 +11186,30 @@
       <c r="F21">
         <v>69</v>
       </c>
-      <c r="G21" t="e">
-        <f>VLOOKUP(LEFT($C21,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" t="e">
-        <f>VLOOKUP(LEFT($C21,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G21">
+        <v>105</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>56.421293456139679</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.27298998519702949</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="2"/>
+        <v>754.17547934068591</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>40686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3623.3315228333504</v>
       </c>
@@ -7418,16 +11228,30 @@
       <c r="F22">
         <v>69</v>
       </c>
-      <c r="G22" t="e">
-        <f>VLOOKUP(LEFT($C22,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" t="e">
-        <f>VLOOKUP(LEFT($C22,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G22">
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <v>45</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>66.469241983091919</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.17899455316110321</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="2"/>
+        <v>1149.0891848863539</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>88635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3623.3315228333504</v>
       </c>
@@ -7446,16 +11270,30 @@
       <c r="F23">
         <v>69</v>
       </c>
-      <c r="G23" t="e">
-        <f>VLOOKUP(LEFT($C23,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" t="e">
-        <f>VLOOKUP(LEFT($C23,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>45</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>64.070870272393591</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.2159231513271902</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="2"/>
+        <v>951.63233211352008</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="3"/>
+        <v>11352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3623.3315228333504</v>
       </c>
@@ -7474,16 +11312,30 @@
       <c r="F24">
         <v>69</v>
       </c>
-      <c r="G24" t="e">
-        <f>VLOOKUP(LEFT($C24,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" t="e">
-        <f>VLOOKUP(LEFT($C24,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24">
+        <v>105</v>
+      </c>
+      <c r="H24">
+        <v>45</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>61.672498561695264</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.2721894280556893</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="2"/>
+        <v>754.1754793406858</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="3"/>
+        <v>40686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4347.9978274000205</v>
       </c>
@@ -7502,16 +11354,30 @@
       <c r="F25">
         <v>76</v>
       </c>
-      <c r="G25" t="e">
-        <f>VLOOKUP(LEFT($C25,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" t="e">
-        <f>VLOOKUP(LEFT($C25,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G25">
+        <v>114</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>69.882157913158053</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.19570874957860698</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="2"/>
+        <v>1706.5377798341826</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>83418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>4347.9978274000205</v>
       </c>
@@ -7530,16 +11396,30 @@
       <c r="F26">
         <v>76</v>
       </c>
-      <c r="G26" t="e">
-        <f>VLOOKUP(LEFT($C26,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" t="e">
-        <f>VLOOKUP(LEFT($C26,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G26">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>68.793423386591058</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.21389546776844884</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="2"/>
+        <v>1559.9140087744438</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="3"/>
+        <v>77444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4347.9978274000205</v>
       </c>
@@ -7558,16 +11438,30 @@
       <c r="F27">
         <v>76</v>
       </c>
-      <c r="G27" t="e">
-        <f>VLOOKUP(LEFT($C27,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" t="e">
-        <f>VLOOKUP(LEFT($C27,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G27">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>67.704688860024049</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.23585624837565874</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="2"/>
+        <v>1413.2902377147052</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>71471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>4347.9978274000205</v>
       </c>
@@ -7586,16 +11480,30 @@
       <c r="F28">
         <v>76</v>
       </c>
-      <c r="G28" t="e">
-        <f>VLOOKUP(LEFT($C28,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" t="e">
-        <f>VLOOKUP(LEFT($C28,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G28">
+        <v>114</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>66.615954333457054</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.2629016968199413</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="2"/>
+        <v>1266.6664666549664</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>65497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4347.9978274000205</v>
       </c>
@@ -7614,16 +11522,30 @@
       <c r="F29">
         <v>76</v>
       </c>
-      <c r="G29" t="e">
-        <f>VLOOKUP(LEFT($C29,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" t="e">
-        <f>VLOOKUP(LEFT($C29,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G29">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>65.527219806890045</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0.2970286991835826</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="2"/>
+        <v>1120.0426955952273</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>59523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>4710.3309796833555</v>
       </c>
@@ -7642,16 +11564,30 @@
       <c r="F30">
         <v>76</v>
       </c>
-      <c r="G30" t="e">
-        <f>VLOOKUP(LEFT($C30,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" t="e">
-        <f>VLOOKUP(LEFT($C30,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G30">
+        <v>114</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>70.294761284302339</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0.29674004155561023</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="2"/>
+        <v>1120.0426955952273</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
+        <v>59523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>5072.6641319666905</v>
       </c>
@@ -7670,16 +11606,30 @@
       <c r="F31">
         <v>76</v>
       </c>
-      <c r="G31" t="e">
-        <f>VLOOKUP(LEFT($C31,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" t="e">
-        <f>VLOOKUP(LEFT($C31,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>75.062302761714648</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0.2964519444278863</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="2"/>
+        <v>1120.0426955952273</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="3"/>
+        <v>59523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>5797.3304365333606</v>
       </c>
@@ -7698,16 +11648,30 @@
       <c r="F32">
         <v>76</v>
       </c>
-      <c r="G32" t="e">
-        <f>VLOOKUP(LEFT($C32,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" t="e">
-        <f>VLOOKUP(LEFT($C32,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G32">
+        <v>114</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>88.952323822807273</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0.19538713033921365</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="2"/>
+        <v>2263.65492445359</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>5797.3304365333606</v>
       </c>
@@ -7726,16 +11690,30 @@
       <c r="F33">
         <v>76</v>
       </c>
-      <c r="G33" t="e">
-        <f>VLOOKUP(LEFT($C33,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" t="e">
-        <f>VLOOKUP(LEFT($C33,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G33">
+        <v>114</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>87.863589296240264</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0.21354537577698138</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="2"/>
+        <v>2069.1642865530425</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>55304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5797.3304365333606</v>
       </c>
@@ -7754,16 +11732,30 @@
       <c r="F34">
         <v>76</v>
       </c>
-      <c r="G34" t="e">
-        <f>VLOOKUP(LEFT($C34,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" t="e">
-        <f>VLOOKUP(LEFT($C34,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G34">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>86.774854769673269</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0.23547176893942703</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="2"/>
+        <v>1874.6736486524956</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>86525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5797.3304365333606</v>
       </c>
@@ -7782,16 +11774,30 @@
       <c r="F35">
         <v>76</v>
       </c>
-      <c r="G35" t="e">
-        <f>VLOOKUP(LEFT($C35,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" t="e">
-        <f>VLOOKUP(LEFT($C35,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G35">
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>85.686120243106259</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0.26247486130130721</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="2"/>
+        <v>1680.1830107519481</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>75195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5797.3304365333606</v>
       </c>
@@ -7810,16 +11816,30 @@
       <c r="F36">
         <v>76</v>
       </c>
-      <c r="G36" t="e">
-        <f>VLOOKUP(LEFT($C36,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" t="e">
-        <f>VLOOKUP(LEFT($C36,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>84.59738571653925</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0.29654840947951361</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="2"/>
+        <v>1485.6923728514014</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>28514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>6159.6635888166957</v>
       </c>
@@ -7838,16 +11858,30 @@
       <c r="F37">
         <v>76</v>
       </c>
-      <c r="G37" t="e">
-        <f>VLOOKUP(LEFT($C37,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" t="e">
-        <f>VLOOKUP(LEFT($C37,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G37">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>89.364927193951544</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0.29626216584101989</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="2"/>
+        <v>1485.6923728514009</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>28514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>6521.9967411000307</v>
       </c>
@@ -7866,16 +11900,30 @@
       <c r="F38">
         <v>76</v>
       </c>
-      <c r="G38" t="e">
-        <f>VLOOKUP(LEFT($C38,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H38" t="e">
-        <f>VLOOKUP(LEFT($C38,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G38">
+        <v>114</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>94.132468671363867</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0.29597647426354545</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="2"/>
+        <v>1485.6923728514012</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>28514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>7065.4964695250328</v>
       </c>
@@ -7894,16 +11942,30 @@
       <c r="F39">
         <v>79</v>
       </c>
-      <c r="G39" t="e">
-        <f>VLOOKUP(LEFT($C39,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H39" t="e">
-        <f>VLOOKUP(LEFT($C39,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G39">
+        <v>117</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>100.57973189248015</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0.21997171596930457</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="2"/>
+        <v>2562.0740036757529</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>67575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>7065.4964695250328</v>
       </c>
@@ -7922,16 +11984,30 @@
       <c r="F40">
         <v>79</v>
       </c>
-      <c r="G40" t="e">
-        <f>VLOOKUP(LEFT($C40,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H40" t="e">
-        <f>VLOOKUP(LEFT($C40,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G40">
+        <v>117</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>99.532341715023293</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0.24255930960677918</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="2"/>
+        <v>2321.2524263067521</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>30675</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>7065.4964695250328</v>
       </c>
@@ -7950,16 +12026,30 @@
       <c r="F41">
         <v>79</v>
       </c>
-      <c r="G41" t="e">
-        <f>VLOOKUP(LEFT($C41,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H41" t="e">
-        <f>VLOOKUP(LEFT($C41,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G41">
+        <v>117</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>98.484951537566431</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0.2703766867748606</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="2"/>
+        <v>2080.4308489377522</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>93775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>7427.8296218083678</v>
       </c>
@@ -7978,16 +12068,30 @@
       <c r="F42">
         <v>79</v>
       </c>
-      <c r="G42" t="e">
-        <f>VLOOKUP(LEFT($C42,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H42" t="e">
-        <f>VLOOKUP(LEFT($C42,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>117</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>106.21361766846026</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0.20049253992159397</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="2"/>
+        <v>2802.8955810447524</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>7427.8296218083678</v>
       </c>
@@ -8006,16 +12110,30 @@
       <c r="F43">
         <v>79</v>
       </c>
-      <c r="G43" t="e">
-        <f>VLOOKUP(LEFT($C43,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H43" t="e">
-        <f>VLOOKUP(LEFT($C43,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>117</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>102.02405695863278</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>0.30518455965960889</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="2"/>
+        <v>1839.6092715687516</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>56875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7790.1627740917029</v>
       </c>
@@ -8034,16 +12152,30 @@
       <c r="F44">
         <v>79</v>
       </c>
-      <c r="G44" t="e">
-        <f>VLOOKUP(LEFT($C44,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H44" t="e">
-        <f>VLOOKUP(LEFT($C44,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>117</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>110.80011326698347</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0.20010808634552188</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="2"/>
+        <v>2802.8955810447524</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7790.1627740917029</v>
       </c>
@@ -8062,16 +12194,30 @@
       <c r="F45">
         <v>79</v>
       </c>
-      <c r="G45" t="e">
-        <f>VLOOKUP(LEFT($C45,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H45" t="e">
-        <f>VLOOKUP(LEFT($C45,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>117</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>106.61055255715603</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>0.3045999149093031</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="2"/>
+        <v>1839.6092715687519</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>56875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>8152.4959263750379</v>
       </c>
@@ -8090,16 +12236,30 @@
       <c r="F46">
         <v>79</v>
       </c>
-      <c r="G46" t="e">
-        <f>VLOOKUP(LEFT($C46,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H46" t="e">
-        <f>VLOOKUP(LEFT($C46,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>117</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>114.33921868804984</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>0.21849822122118487</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" si="2"/>
+        <v>2562.0740036757525</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>67575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>8152.4959263750379</v>
       </c>
@@ -8118,16 +12278,30 @@
       <c r="F47">
         <v>79</v>
       </c>
-      <c r="G47" t="e">
-        <f>VLOOKUP(LEFT($C47,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H47" t="e">
-        <f>VLOOKUP(LEFT($C47,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>117</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>113.29182851059296</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>0.24093606374898999</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="2"/>
+        <v>2321.252426306753</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>30675</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>8152.4959263750379</v>
       </c>
@@ -8146,16 +12320,30 @@
       <c r="F48">
         <v>79</v>
       </c>
-      <c r="G48" t="e">
-        <f>VLOOKUP(LEFT($C48,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H48" t="e">
-        <f>VLOOKUP(LEFT($C48,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G48">
+        <v>117</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>112.24443833313612</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>0.26856901074102679</v>
+      </c>
+      <c r="K48" s="2">
+        <f t="shared" si="2"/>
+        <v>2080.4308489377522</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>93775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>362.33315228333504</v>
       </c>
@@ -8174,16 +12362,30 @@
       <c r="F49">
         <v>87</v>
       </c>
-      <c r="G49" t="e">
-        <f>VLOOKUP(LEFT($C49,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H49" t="e">
-        <f>VLOOKUP(LEFT($C49,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G49">
+        <v>127</v>
+      </c>
+      <c r="H49">
+        <v>57</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>9.448517971270288</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>0.233684359276632</v>
+      </c>
+      <c r="K49" s="2">
+        <f t="shared" si="2"/>
+        <v>1592.1917652158688</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>21587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>507.26641319666902</v>
       </c>
@@ -8202,16 +12404,30 @@
       <c r="F50">
         <v>87</v>
       </c>
-      <c r="G50" t="e">
-        <f>VLOOKUP(LEFT($C50,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H50" t="e">
-        <f>VLOOKUP(LEFT($C50,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G50">
+        <v>127</v>
+      </c>
+      <c r="H50">
+        <v>57</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>10.031244857635944</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>0.29379913367683108</v>
+      </c>
+      <c r="K50" s="2">
+        <f t="shared" si="2"/>
+        <v>1265.7924533466157</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>34662</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>652.199674110003</v>
       </c>
@@ -8230,16 +12446,30 @@
       <c r="F51">
         <v>87</v>
       </c>
-      <c r="G51" t="e">
-        <f>VLOOKUP(LEFT($C51,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H51" t="e">
-        <f>VLOOKUP(LEFT($C51,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G51">
+        <v>127</v>
+      </c>
+      <c r="H51">
+        <v>57</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>10.746065971362858</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>0.37960386103394195</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" si="2"/>
+        <v>979.19793560775952</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>60776</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>797.13293502333704</v>
       </c>
@@ -8258,16 +12488,30 @@
       <c r="F52">
         <v>87</v>
       </c>
-      <c r="G52" t="e">
-        <f>VLOOKUP(LEFT($C52,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H52" t="e">
-        <f>VLOOKUP(LEFT($C52,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G52">
+        <v>127</v>
+      </c>
+      <c r="H52">
+        <v>57</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>11.434468239617521</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>0.54265709047038002</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="2"/>
+        <v>684.6424590428237</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>942.06619593667108</v>
       </c>
@@ -8286,16 +12530,30 @@
       <c r="F53">
         <v>87</v>
       </c>
-      <c r="G53" t="e">
-        <f>VLOOKUP(LEFT($C53,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H53" t="e">
-        <f>VLOOKUP(LEFT($C53,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G53">
+        <v>127</v>
+      </c>
+      <c r="H53">
+        <v>57</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>12.149289353344436</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>0.93291533683926375</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="2"/>
+        <v>398.04794130396721</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1086.9994568500051</v>
       </c>
@@ -8314,16 +12572,30 @@
       <c r="F54">
         <v>87</v>
       </c>
-      <c r="G54" t="e">
-        <f>VLOOKUP(LEFT($C54,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H54" t="e">
-        <f>VLOOKUP(LEFT($C54,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G54">
+        <v>127</v>
+      </c>
+      <c r="H54">
+        <v>57</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>14.766267341073478</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>0.54212844254980497</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="2"/>
+        <v>684.64245904282359</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1231.932717763339</v>
       </c>
@@ -8342,16 +12614,30 @@
       <c r="F55">
         <v>87</v>
       </c>
-      <c r="G55" t="e">
-        <f>VLOOKUP(LEFT($C55,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H55" t="e">
-        <f>VLOOKUP(LEFT($C55,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G55">
+        <v>127</v>
+      </c>
+      <c r="H55">
+        <v>57</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>17.40966417427477</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0.37886461300855939</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="2"/>
+        <v>979.1979356077594</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>7759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1376.8659786766732</v>
       </c>
@@ -8370,16 +12656,30 @@
       <c r="F56">
         <v>87</v>
       </c>
-      <c r="G56" t="e">
-        <f>VLOOKUP(LEFT($C56,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" t="e">
-        <f>VLOOKUP(LEFT($C56,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G56">
+        <v>127</v>
+      </c>
+      <c r="H56">
+        <v>57</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>18.098066442529433</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>0.5416008236276153</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="2"/>
+        <v>684.6424590428237</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1521.7992395900071</v>
       </c>
@@ -8398,16 +12698,30 @@
       <c r="F57">
         <v>87</v>
       </c>
-      <c r="G57" t="e">
-        <f>VLOOKUP(LEFT($C57,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H57" t="e">
-        <f>VLOOKUP(LEFT($C57,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G57">
+        <v>127</v>
+      </c>
+      <c r="H57">
+        <v>57</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>18.812887556256346</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>0.93110032645630803</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="2"/>
+        <v>398.04794130396721</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1666.732500503341</v>
       </c>
@@ -8426,16 +12740,30 @@
       <c r="F58">
         <v>87</v>
       </c>
-      <c r="G58" t="e">
-        <f>VLOOKUP(LEFT($C58,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H58" t="e">
-        <f>VLOOKUP(LEFT($C58,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G58">
+        <v>127</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>21.429865543985386</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>0.54107423070235761</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="2"/>
+        <v>684.64245904282359</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="3"/>
+        <v>42824</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1811.6657614166752</v>
       </c>
@@ -8454,16 +12782,30 @@
       <c r="F59">
         <v>87</v>
       </c>
-      <c r="G59" t="e">
-        <f>VLOOKUP(LEFT($C59,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H59" t="e">
-        <f>VLOOKUP(LEFT($C59,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G59">
+        <v>127</v>
+      </c>
+      <c r="H59">
+        <v>57</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>24.07326237718668</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>0.37812823863925216</v>
+      </c>
+      <c r="K59" s="2">
+        <f t="shared" si="2"/>
+        <v>979.19793560775952</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>60776</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1956.5990223300091</v>
       </c>
@@ -8482,16 +12824,30 @@
       <c r="F60">
         <v>87</v>
       </c>
-      <c r="G60" t="e">
-        <f>VLOOKUP(LEFT($C60,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H60" t="e">
-        <f>VLOOKUP(LEFT($C60,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G60">
+        <v>127</v>
+      </c>
+      <c r="H60">
+        <v>57</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>26.690240364915716</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>0.29237223161914849</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="2"/>
+        <v>1265.792453346616</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>34662</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2101.532283243343</v>
       </c>
@@ -8510,16 +12866,30 @@
       <c r="F61">
         <v>87</v>
       </c>
-      <c r="G61" t="e">
-        <f>VLOOKUP(LEFT($C61,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H61" t="e">
-        <f>VLOOKUP(LEFT($C61,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G61">
+        <v>127</v>
+      </c>
+      <c r="H61">
+        <v>57</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>29.439312580006014</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>0.23232309116434091</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="2"/>
+        <v>1592.1917652158691</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>21587</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2391.3988050700113</v>
       </c>
@@ -8538,16 +12908,30 @@
       <c r="F62">
         <v>79</v>
       </c>
-      <c r="G62" t="e">
-        <f>VLOOKUP(LEFT($C62,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H62" t="e">
-        <f>VLOOKUP(LEFT($C62,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G62">
+        <v>117</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>34.896844234021131</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>0.26951803682121839</v>
+      </c>
+      <c r="K62" s="2">
+        <f t="shared" si="2"/>
+        <v>1474.4093469608965</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>69609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2391.3988050700113</v>
       </c>
@@ -8566,16 +12950,30 @@
       <c r="F63">
         <v>79</v>
       </c>
-      <c r="G63" t="e">
-        <f>VLOOKUP(LEFT($C63,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H63" t="e">
-        <f>VLOOKUP(LEFT($C63,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G63">
+        <v>117</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>33.849454056564269</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>0.34823240183686388</v>
+      </c>
+      <c r="K63" s="2">
+        <f t="shared" si="2"/>
+        <v>1140.580815573524</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>57352</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2391.3988050700113</v>
       </c>
@@ -8594,16 +12992,30 @@
       <c r="F64">
         <v>79</v>
       </c>
-      <c r="G64" t="e">
-        <f>VLOOKUP(LEFT($C64,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H64" t="e">
-        <f>VLOOKUP(LEFT($C64,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G64">
+        <v>117</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>32.772969707511379</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>0.49781189703568096</v>
+      </c>
+      <c r="K64" s="2">
+        <f t="shared" si="2"/>
+        <v>797.47926942539038</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="3"/>
+        <v>42539</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2753.7319573533464</v>
       </c>
@@ -8622,16 +13034,30 @@
       <c r="F65">
         <v>79</v>
       </c>
-      <c r="G65" t="e">
-        <f>VLOOKUP(LEFT($C65,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H65" t="e">
-        <f>VLOOKUP(LEFT($C65,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G65">
+        <v>117</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>40.67620086798135</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>0.21395540491346038</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" si="2"/>
+        <v>1854.6029521520711</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>15207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2753.7319573533464</v>
       </c>
@@ -8650,16 +13076,30 @@
       <c r="F66">
         <v>79</v>
       </c>
-      <c r="G66" t="e">
-        <f>VLOOKUP(LEFT($C66,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H66" t="e">
-        <f>VLOOKUP(LEFT($C66,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G66">
+        <v>117</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>36.312075128577739</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>0.85540717819153955</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="2"/>
+        <v>463.65073803801778</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="3"/>
+        <v>38018</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>3116.0651096366814</v>
       </c>
@@ -8678,16 +13118,30 @@
       <c r="F67">
         <v>79</v>
       </c>
-      <c r="G67" t="e">
-        <f>VLOOKUP(LEFT($C67,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H67" t="e">
-        <f>VLOOKUP(LEFT($C67,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G67">
+        <v>117</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I110" si="4">SUM(A67:B67)/F67</f>
+        <v>45.262696466504579</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J110" si="5">(D67+F67+G67)/(E67*B67)</f>
+        <v>0.21374828448276004</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" ref="K67:K110" si="6">((D67/E67)*G67)/J67</f>
+        <v>1854.6029521520711</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L110" si="7">RIGHT(K67,5)*1</f>
+        <v>15207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>3116.0651096366814</v>
       </c>
@@ -8706,16 +13160,30 @@
       <c r="F68">
         <v>79</v>
       </c>
-      <c r="G68" t="e">
-        <f>VLOOKUP(LEFT($C68,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H68" t="e">
-        <f>VLOOKUP(LEFT($C68,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>117</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>40.898570727100967</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="5"/>
+        <v>0.85457949829004776</v>
+      </c>
+      <c r="K68" s="2">
+        <f t="shared" si="6"/>
+        <v>463.65073803801778</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="7"/>
+        <v>38018</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>3478.398261920016</v>
       </c>
@@ -8734,16 +13202,30 @@
       <c r="F69">
         <v>79</v>
       </c>
-      <c r="G69" t="e">
-        <f>VLOOKUP(LEFT($C69,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H69" t="e">
-        <f>VLOOKUP(LEFT($C69,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>117</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>48.65633102959081</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="5"/>
+        <v>0.26860574172559532</v>
+      </c>
+      <c r="K69" s="2">
+        <f t="shared" si="6"/>
+        <v>1474.4093469608963</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="7"/>
+        <v>69609</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>3478.398261920016</v>
       </c>
@@ -8762,16 +13244,30 @@
       <c r="F70">
         <v>79</v>
       </c>
-      <c r="G70" t="e">
-        <f>VLOOKUP(LEFT($C70,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H70" t="e">
-        <f>VLOOKUP(LEFT($C70,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>117</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>47.608940852133948</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="5"/>
+        <v>0.34705423518009343</v>
+      </c>
+      <c r="K70" s="2">
+        <f t="shared" si="6"/>
+        <v>1140.5808155735238</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="7"/>
+        <v>57352</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>3478.398261920016</v>
       </c>
@@ -8790,16 +13286,30 @@
       <c r="F71">
         <v>79</v>
       </c>
-      <c r="G71" t="e">
-        <f>VLOOKUP(LEFT($C71,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H71" t="e">
-        <f>VLOOKUP(LEFT($C71,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>117</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>46.532456503081058</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="5"/>
+        <v>0.49612847516164732</v>
+      </c>
+      <c r="K71" s="2">
+        <f t="shared" si="6"/>
+        <v>797.4792694253905</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="7"/>
+        <v>42539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>4021.8979903450186</v>
       </c>
@@ -8818,16 +13328,30 @@
       <c r="F72">
         <v>82</v>
       </c>
-      <c r="G72" t="e">
-        <f>VLOOKUP(LEFT($C72,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H72" t="e">
-        <f>VLOOKUP(LEFT($C72,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>122</v>
+      </c>
+      <c r="H72">
+        <v>52</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>54.653486604417054</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="5"/>
+        <v>0.222685879402333</v>
+      </c>
+      <c r="K72" s="2">
+        <f t="shared" si="6"/>
+        <v>2116.2990629621117</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="7"/>
+        <v>96211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4021.8979903450186</v>
       </c>
@@ -8846,16 +13370,30 @@
       <c r="F73">
         <v>82</v>
       </c>
-      <c r="G73" t="e">
-        <f>VLOOKUP(LEFT($C73,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H73" t="e">
-        <f>VLOOKUP(LEFT($C73,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>122</v>
+      </c>
+      <c r="H73">
+        <v>52</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>53.504266826374099</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="5"/>
+        <v>0.27997283713498439</v>
+      </c>
+      <c r="K73" s="2">
+        <f t="shared" si="6"/>
+        <v>1682.4577550548788</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="7"/>
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4021.8979903450186</v>
       </c>
@@ -8874,16 +13412,30 @@
       <c r="F74">
         <v>82</v>
       </c>
-      <c r="G74" t="e">
-        <f>VLOOKUP(LEFT($C74,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H74" t="e">
-        <f>VLOOKUP(LEFT($C74,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>122</v>
+      </c>
+      <c r="H74">
+        <v>52</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>52.495195801751024</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="5"/>
+        <v>0.36174152086425282</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="6"/>
+        <v>1301.5239237216988</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="7"/>
+        <v>37217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4021.8979903450186</v>
       </c>
@@ -8902,16 +13454,30 @@
       <c r="F75">
         <v>82</v>
       </c>
-      <c r="G75" t="e">
-        <f>VLOOKUP(LEFT($C75,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H75" t="e">
-        <f>VLOOKUP(LEFT($C75,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G75">
+        <v>122</v>
+      </c>
+      <c r="H75">
+        <v>52</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>51.458095026443971</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="5"/>
+        <v>0.51712504344176147</v>
+      </c>
+      <c r="K75" s="2">
+        <f t="shared" si="6"/>
+        <v>910.00859707370807</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="7"/>
+        <v>73708</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4021.8979903450186</v>
       </c>
@@ -8930,16 +13496,30 @@
       <c r="F76">
         <v>82</v>
       </c>
-      <c r="G76" t="e">
-        <f>VLOOKUP(LEFT($C76,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H76" t="e">
-        <f>VLOOKUP(LEFT($C76,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G76">
+        <v>122</v>
+      </c>
+      <c r="H76">
+        <v>52</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="4"/>
+        <v>50.449024001820895</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="5"/>
+        <v>0.88902642167177193</v>
+      </c>
+      <c r="K76" s="2">
+        <f t="shared" si="6"/>
+        <v>529.07476574052782</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="7"/>
+        <v>40528</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4384.2311426283541</v>
       </c>
@@ -8958,16 +13538,30 @@
       <c r="F77">
         <v>82</v>
       </c>
-      <c r="G77" t="e">
-        <f>VLOOKUP(LEFT($C77,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H77" t="e">
-        <f>VLOOKUP(LEFT($C77,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G77">
+        <v>122</v>
+      </c>
+      <c r="H77">
+        <v>52</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="4"/>
+        <v>59.072183583482122</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="5"/>
+        <v>0.22214954539606535</v>
+      </c>
+      <c r="K77" s="2">
+        <f t="shared" si="6"/>
+        <v>2116.2990629621117</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="7"/>
+        <v>96211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4384.2311426283541</v>
       </c>
@@ -8986,16 +13580,30 @@
       <c r="F78">
         <v>82</v>
       </c>
-      <c r="G78" t="e">
-        <f>VLOOKUP(LEFT($C78,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H78" t="e">
-        <f>VLOOKUP(LEFT($C78,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G78">
+        <v>122</v>
+      </c>
+      <c r="H78">
+        <v>52</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="4"/>
+        <v>56.913892780816099</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="5"/>
+        <v>0.36104485929301694</v>
+      </c>
+      <c r="K78" s="2">
+        <f t="shared" si="6"/>
+        <v>1301.5239237216988</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="7"/>
+        <v>37217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>4565.3977187700211</v>
       </c>
@@ -9014,16 +13622,30 @@
       <c r="F79">
         <v>82</v>
       </c>
-      <c r="G79" t="e">
-        <f>VLOOKUP(LEFT($C79,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H79" t="e">
-        <f>VLOOKUP(LEFT($C79,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G79">
+        <v>122</v>
+      </c>
+      <c r="H79">
+        <v>52</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="4"/>
+        <v>58.086140495041569</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="5"/>
+        <v>0.5161296150617003</v>
+      </c>
+      <c r="K79" s="2">
+        <f t="shared" si="6"/>
+        <v>910.00859707370807</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="7"/>
+        <v>73708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>4746.5642949116891</v>
       </c>
@@ -9042,16 +13664,30 @@
       <c r="F80">
         <v>82</v>
       </c>
-      <c r="G80" t="e">
-        <f>VLOOKUP(LEFT($C80,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H80" t="e">
-        <f>VLOOKUP(LEFT($C80,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>122</v>
+      </c>
+      <c r="H80">
+        <v>52</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="4"/>
+        <v>63.490880562547183</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="5"/>
+        <v>0.22182898328149669</v>
+      </c>
+      <c r="K80" s="2">
+        <f t="shared" si="6"/>
+        <v>2116.2990629621117</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="7"/>
+        <v>96211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>4746.5642949116891</v>
       </c>
@@ -9070,16 +13706,30 @@
       <c r="F81">
         <v>82</v>
       </c>
-      <c r="G81" t="e">
-        <f>VLOOKUP(LEFT($C81,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H81" t="e">
-        <f>VLOOKUP(LEFT($C81,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G81">
+        <v>122</v>
+      </c>
+      <c r="H81">
+        <v>52</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="4"/>
+        <v>61.332589759881159</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="5"/>
+        <v>0.36052412151519042</v>
+      </c>
+      <c r="K81" s="2">
+        <f t="shared" si="6"/>
+        <v>1301.5239237216988</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="7"/>
+        <v>37217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>4746.5642949116891</v>
       </c>
@@ -9098,16 +13748,30 @@
       <c r="F82">
         <v>82</v>
       </c>
-      <c r="G82" t="e">
-        <f>VLOOKUP(LEFT($C82,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H82" t="e">
-        <f>VLOOKUP(LEFT($C82,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <v>122</v>
+      </c>
+      <c r="H82">
+        <v>52</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="4"/>
+        <v>59.286417959951031</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="5"/>
+        <v>0.88646315471836945</v>
+      </c>
+      <c r="K82" s="2">
+        <f t="shared" si="6"/>
+        <v>529.07476574052782</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="7"/>
+        <v>40528</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>4927.7308710533562</v>
       </c>
@@ -9126,16 +13790,30 @@
       <c r="F83">
         <v>82</v>
       </c>
-      <c r="G83" t="e">
-        <f>VLOOKUP(LEFT($C83,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H83" t="e">
-        <f>VLOOKUP(LEFT($C83,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G83">
+        <v>122</v>
+      </c>
+      <c r="H83">
+        <v>52</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="4"/>
+        <v>64.551009274036758</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="5"/>
+        <v>0.27862810688937928</v>
+      </c>
+      <c r="K83" s="2">
+        <f t="shared" si="6"/>
+        <v>1682.457755054879</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="7"/>
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>5434.9972842500256</v>
       </c>
@@ -9154,16 +13832,30 @@
       <c r="F84">
         <v>76</v>
       </c>
-      <c r="G84" t="e">
-        <f>VLOOKUP(LEFT($C84,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H84" t="e">
-        <f>VLOOKUP(LEFT($C84,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G84">
+        <v>114</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="4"/>
+        <v>77.561647308779015</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="5"/>
+        <v>0.20782640420702203</v>
+      </c>
+      <c r="K84" s="2">
+        <f t="shared" si="6"/>
+        <v>2370.0492306976216</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="7"/>
+        <v>69762</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>5434.9972842500256</v>
       </c>
@@ -9182,16 +13874,30 @@
       <c r="F85">
         <v>76</v>
       </c>
-      <c r="G85" t="e">
-        <f>VLOOKUP(LEFT($C85,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H85" t="e">
-        <f>VLOOKUP(LEFT($C85,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G85">
+        <v>114</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="4"/>
+        <v>76.32169965352216</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="5"/>
+        <v>0.2612914206854422</v>
+      </c>
+      <c r="K85" s="2">
+        <f t="shared" si="6"/>
+        <v>1884.1891384046089</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="7"/>
+        <v>40461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5434.9972842500256</v>
       </c>
@@ -9210,16 +13916,30 @@
       <c r="F86">
         <v>76</v>
       </c>
-      <c r="G86" t="e">
-        <f>VLOOKUP(LEFT($C86,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H86" t="e">
-        <f>VLOOKUP(LEFT($C86,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G86">
+        <v>114</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="4"/>
+        <v>75.23296512695515</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="5"/>
+        <v>0.33760495990581341</v>
+      </c>
+      <c r="K86" s="2">
+        <f t="shared" si="6"/>
+        <v>1457.5802768790372</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="7"/>
+        <v>87904</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>5434.9972842500256</v>
       </c>
@@ -9238,16 +13958,30 @@
       <c r="F87">
         <v>76</v>
       </c>
-      <c r="G87" t="e">
-        <f>VLOOKUP(LEFT($C87,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H87" t="e">
-        <f>VLOOKUP(LEFT($C87,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G87">
+        <v>114</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="4"/>
+        <v>74.113987974650172</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="5"/>
+        <v>0.48262213200208137</v>
+      </c>
+      <c r="K87" s="2">
+        <f t="shared" si="6"/>
+        <v>1019.1211691999772</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="7"/>
+        <v>19998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>5434.9972842500256</v>
       </c>
@@ -9266,16 +14000,30 @@
       <c r="F88">
         <v>76</v>
       </c>
-      <c r="G88" t="e">
-        <f>VLOOKUP(LEFT($C88,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H88" t="e">
-        <f>VLOOKUP(LEFT($C88,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G88">
+        <v>114</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="4"/>
+        <v>73.025253448083163</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="5"/>
+        <v>0.82971231425630454</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" si="6"/>
+        <v>592.51230767440541</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="7"/>
+        <v>74405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5797.3304365333606</v>
       </c>
@@ -9294,16 +14042,30 @@
       <c r="F89">
         <v>76</v>
       </c>
-      <c r="G89" t="e">
-        <f>VLOOKUP(LEFT($C89,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H89" t="e">
-        <f>VLOOKUP(LEFT($C89,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G89">
+        <v>114</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="4"/>
+        <v>77.792794925495471</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="5"/>
+        <v>0.82931494245828918</v>
+      </c>
+      <c r="K89" s="2">
+        <f t="shared" si="6"/>
+        <v>592.51230767440529</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="7"/>
+        <v>74405</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>6159.6635888166957</v>
       </c>
@@ -9322,16 +14084,30 @@
       <c r="F90">
         <v>76</v>
       </c>
-      <c r="G90" t="e">
-        <f>VLOOKUP(LEFT($C90,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H90" t="e">
-        <f>VLOOKUP(LEFT($C90,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G90">
+        <v>114</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="4"/>
+        <v>82.56033640290778</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="5"/>
+        <v>0.82891795110239719</v>
+      </c>
+      <c r="K90" s="2">
+        <f t="shared" si="6"/>
+        <v>592.51230767440529</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="7"/>
+        <v>74405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>6666.9300020133642</v>
       </c>
@@ -9350,16 +14126,30 @@
       <c r="F91">
         <v>68</v>
       </c>
-      <c r="G91" t="e">
-        <f>VLOOKUP(LEFT($C91,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H91" t="e">
-        <f>VLOOKUP(LEFT($C91,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G91">
+        <v>104</v>
+      </c>
+      <c r="H91">
+        <v>44</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="4"/>
+        <v>104.80320460633153</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="5"/>
+        <v>0.18943578368711333</v>
+      </c>
+      <c r="K91" s="2">
+        <f t="shared" si="6"/>
+        <v>2626.7880640981712</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="7"/>
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>6666.9300020133642</v>
       </c>
@@ -9378,16 +14168,30 @@
       <c r="F92">
         <v>68</v>
       </c>
-      <c r="G92" t="e">
-        <f>VLOOKUP(LEFT($C92,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H92" t="e">
-        <f>VLOOKUP(LEFT($C92,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G92">
+        <v>104</v>
+      </c>
+      <c r="H92">
+        <v>44</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="4"/>
+        <v>103.41738075633856</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="5"/>
+        <v>0.23817004767726724</v>
+      </c>
+      <c r="K92" s="2">
+        <f t="shared" si="6"/>
+        <v>2088.2965109580464</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="7"/>
+        <v>95805</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>6666.9300020133642</v>
       </c>
@@ -9406,16 +14210,30 @@
       <c r="F93">
         <v>68</v>
       </c>
-      <c r="G93" t="e">
-        <f>VLOOKUP(LEFT($C93,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H93" t="e">
-        <f>VLOOKUP(LEFT($C93,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G93">
+        <v>104</v>
+      </c>
+      <c r="H93">
+        <v>44</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="4"/>
+        <v>102.20055981488133</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="5"/>
+        <v>0.30773118492908857</v>
+      </c>
+      <c r="K93" s="2">
+        <f t="shared" si="6"/>
+        <v>1615.4746594203757</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="7"/>
+        <v>42038</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>6666.9300020133642</v>
       </c>
@@ -9434,16 +14252,30 @@
       <c r="F94">
         <v>68</v>
       </c>
-      <c r="G94" t="e">
-        <f>VLOOKUP(LEFT($C94,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H94" t="e">
-        <f>VLOOKUP(LEFT($C94,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G94">
+        <v>104</v>
+      </c>
+      <c r="H94">
+        <v>44</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="4"/>
+        <v>100.94993829171693</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="5"/>
+        <v>0.43991687452756906</v>
+      </c>
+      <c r="K94" s="2">
+        <f t="shared" si="6"/>
+        <v>1129.5188675622137</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="7"/>
+        <v>56221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>6666.9300020133642</v>
       </c>
@@ -9462,16 +14294,30 @@
       <c r="F95">
         <v>68</v>
       </c>
-      <c r="G95" t="e">
-        <f>VLOOKUP(LEFT($C95,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H95" t="e">
-        <f>VLOOKUP(LEFT($C95,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G95">
+        <v>104</v>
+      </c>
+      <c r="H95">
+        <v>44</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="4"/>
+        <v>99.733117350259704</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="5"/>
+        <v>0.75629567890366167</v>
+      </c>
+      <c r="K95" s="2">
+        <f t="shared" si="6"/>
+        <v>656.69701602454279</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="7"/>
+        <v>24543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>7029.2631542966992</v>
       </c>
@@ -9490,16 +14336,30 @@
       <c r="F96">
         <v>68</v>
       </c>
-      <c r="G96" t="e">
-        <f>VLOOKUP(LEFT($C96,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H96" t="e">
-        <f>VLOOKUP(LEFT($C96,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G96">
+        <v>104</v>
+      </c>
+      <c r="H96">
+        <v>44</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="4"/>
+        <v>110.13163331638057</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="5"/>
+        <v>0.1889836696449006</v>
+      </c>
+      <c r="K96" s="2">
+        <f t="shared" si="6"/>
+        <v>2626.7880640981716</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="7"/>
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>7029.2631542966992</v>
       </c>
@@ -9518,16 +14378,30 @@
       <c r="F97">
         <v>68</v>
       </c>
-      <c r="G97" t="e">
-        <f>VLOOKUP(LEFT($C97,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H97" t="e">
-        <f>VLOOKUP(LEFT($C97,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G97">
+        <v>104</v>
+      </c>
+      <c r="H97">
+        <v>44</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="4"/>
+        <v>105.06154606030874</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="5"/>
+        <v>0.75557402272150154</v>
+      </c>
+      <c r="K97" s="2">
+        <f t="shared" si="6"/>
+        <v>656.69701602454279</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="7"/>
+        <v>24543</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>7391.5963065800343</v>
       </c>
@@ -9546,16 +14420,30 @@
       <c r="F98">
         <v>68</v>
       </c>
-      <c r="G98" t="e">
-        <f>VLOOKUP(LEFT($C98,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H98" t="e">
-        <f>VLOOKUP(LEFT($C98,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G98">
+        <v>104</v>
+      </c>
+      <c r="H98">
+        <v>44</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="4"/>
+        <v>115.46006202642963</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="5"/>
+        <v>0.18880342770914013</v>
+      </c>
+      <c r="K98" s="2">
+        <f t="shared" si="6"/>
+        <v>2626.7880640981712</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="7"/>
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>7391.5963065800343</v>
       </c>
@@ -9574,16 +14462,30 @@
       <c r="F99">
         <v>68</v>
       </c>
-      <c r="G99" t="e">
-        <f>VLOOKUP(LEFT($C99,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H99" t="e">
-        <f>VLOOKUP(LEFT($C99,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G99">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>44</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="4"/>
+        <v>110.38997477035778</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="5"/>
+        <v>0.75485374243292058</v>
+      </c>
+      <c r="K99" s="2">
+        <f t="shared" si="6"/>
+        <v>656.69701602454279</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="7"/>
+        <v>24543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>7608.9961979500358</v>
       </c>
@@ -9602,16 +14504,30 @@
       <c r="F100">
         <v>68</v>
       </c>
-      <c r="G100" t="e">
-        <f>VLOOKUP(LEFT($C100,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H100" t="e">
-        <f>VLOOKUP(LEFT($C100,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G100">
+        <v>104</v>
+      </c>
+      <c r="H100">
+        <v>44</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="4"/>
+        <v>117.27129540246608</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="5"/>
+        <v>0.23726230094957876</v>
+      </c>
+      <c r="K100" s="2">
+        <f t="shared" si="6"/>
+        <v>2088.2965109580459</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="7"/>
+        <v>95805</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>7608.9961979500358</v>
       </c>
@@ -9630,16 +14546,30 @@
       <c r="F101">
         <v>68</v>
       </c>
-      <c r="G101" t="e">
-        <f>VLOOKUP(LEFT($C101,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H101" t="e">
-        <f>VLOOKUP(LEFT($C101,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G101">
+        <v>104</v>
+      </c>
+      <c r="H101">
+        <v>44</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="4"/>
+        <v>116.05447446100885</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="5"/>
+        <v>0.30655887565316819</v>
+      </c>
+      <c r="K101" s="2">
+        <f t="shared" si="6"/>
+        <v>1615.4746594203759</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="7"/>
+        <v>42038</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>7608.9961979500358</v>
       </c>
@@ -9658,16 +14588,30 @@
       <c r="F102">
         <v>68</v>
       </c>
-      <c r="G102" t="e">
-        <f>VLOOKUP(LEFT($C102,1),#REF!,3,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H102" t="e">
-        <f>VLOOKUP(LEFT($C102,1),#REF!,4,FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <v>104</v>
+      </c>
+      <c r="H102">
+        <v>44</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="4"/>
+        <v>114.80385293784445</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="5"/>
+        <v>0.43824179837515559</v>
+      </c>
+      <c r="K102" s="2">
+        <f t="shared" si="6"/>
+        <v>1129.5188675622137</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="7"/>
+        <v>56221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>8587.2957091150402</v>
       </c>
@@ -9692,8 +14636,24 @@
       <c r="H103">
         <v>21</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I103">
+        <f t="shared" si="4"/>
+        <v>274.15101879794605</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="5"/>
+        <v>8.7967678537488325E-2</v>
+      </c>
+      <c r="K103" s="2">
+        <f t="shared" si="6"/>
+        <v>2439.0499759876257</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="7"/>
+        <v>98763</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>8587.2957091150402</v>
       </c>
@@ -9718,8 +14678,24 @@
       <c r="H104">
         <v>21</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I104">
+        <f t="shared" si="4"/>
+        <v>271.29538177371813</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="5"/>
+        <v>0.11059855210484</v>
+      </c>
+      <c r="K104" s="2">
+        <f t="shared" si="6"/>
+        <v>1939.0447309101623</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="7"/>
+        <v>91016</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>8587.2957091150402</v>
       </c>
@@ -9744,8 +14720,24 @@
       <c r="H105">
         <v>21</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I105">
+        <f t="shared" si="4"/>
+        <v>268.78799316707892</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="5"/>
+        <v>0.14290090905885838</v>
+      </c>
+      <c r="K105" s="2">
+        <f t="shared" si="6"/>
+        <v>1500.0157352323899</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="7"/>
+        <v>23239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>8587.2957091150402</v>
       </c>
@@ -9770,8 +14762,24 @@
       <c r="H106">
         <v>21</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I106">
+        <f t="shared" si="4"/>
+        <v>263.70356627028286</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="5"/>
+        <v>0.35136923569748302</v>
+      </c>
+      <c r="K106" s="2">
+        <f t="shared" si="6"/>
+        <v>609.7624939969063</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="7"/>
+        <v>96906</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>8949.6288613983743</v>
       </c>
@@ -9796,8 +14804,24 @@
       <c r="H107">
         <v>21</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I107">
+        <f t="shared" si="4"/>
+        <v>285.13081129138038</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="5"/>
+        <v>8.7800598426306012E-2</v>
+      </c>
+      <c r="K107" s="2">
+        <f t="shared" si="6"/>
+        <v>2439.0499759876252</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="7"/>
+        <v>98763</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>8949.6288613983743</v>
       </c>
@@ -9822,8 +14846,24 @@
       <c r="H108">
         <v>21</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I108">
+        <f t="shared" si="4"/>
+        <v>282.27517426715252</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="5"/>
+        <v>0.11038858807616446</v>
+      </c>
+      <c r="K108" s="2">
+        <f t="shared" si="6"/>
+        <v>1939.0447309101626</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="7"/>
+        <v>91016</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>8949.6288613983743</v>
       </c>
@@ -9848,8 +14888,24 @@
       <c r="H109">
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I109">
+        <f t="shared" si="4"/>
+        <v>279.76778566051331</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="5"/>
+        <v>0.14262974983863286</v>
+      </c>
+      <c r="K109" s="2">
+        <f t="shared" si="6"/>
+        <v>1500.0157352323899</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="7"/>
+        <v>23239</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>8949.6288613983743</v>
       </c>
@@ -9873,6 +14929,22 @@
       </c>
       <c r="H110">
         <v>21</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="4"/>
+        <v>274.68335876371725</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="5"/>
+        <v>0.35070281704276995</v>
+      </c>
+      <c r="K110" s="2">
+        <f t="shared" si="6"/>
+        <v>609.76249399690641</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="7"/>
+        <v>96906</v>
       </c>
     </row>
   </sheetData>

--- a/HW_Data_Seeds.xlsx
+++ b/HW_Data_Seeds.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschwant\Documents\GitHub\HW_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA85EF81-CEC5-4E30-B3F4-DDB1F156910D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8197BB-1F48-4E83-8CA3-BAE861F19AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{A8602DBB-A917-4418-8C67-EC2628D0C3AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Orig_Seed" sheetId="1" r:id="rId1"/>
-    <sheet name="Spread_Seed" sheetId="2" r:id="rId2"/>
+    <sheet name="Spread_Seed_test_calcs" sheetId="2" r:id="rId2"/>
+    <sheet name="Spread_Seed (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="32">
   <si>
     <t>D</t>
   </si>
@@ -134,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -197,7 +198,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1186,7 +1187,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Spread_Seed!$A$1</c:f>
+              <c:f>Spread_Seed_test_calcs!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1219,7 +1220,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Spread_Seed!$A$2:$A$115</c:f>
+              <c:f>Spread_Seed_test_calcs!$A$2:$A$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
@@ -1555,7 +1556,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Spread_Seed!$B$2:$B$115</c:f>
+              <c:f>Spread_Seed_test_calcs!$B$2:$B$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="114"/>
@@ -2098,6 +2099,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.92544201403255066"/>
+          <c:y val="0.14058016630908002"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2138,7 +2147,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Spread_Seed!$J$1</c:f>
+              <c:f>Spread_Seed_test_calcs!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2158,7 +2167,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Spread_Seed!$J$2:$J$110</c:f>
+              <c:f>Spread_Seed_test_calcs!$J$2:$J$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
@@ -2715,7 +2724,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19154777183076818"/>
+          <c:y val="0.17477269565056075"/>
+          <c:w val="0.78356840167677366"/>
+          <c:h val="0.70321519010824896"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2736,7 +2755,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Spread_Seed!$K$2:$K$110</c:f>
+              <c:f>Spread_Seed_test_calcs!$K$2:$K$110</c:f>
               <c:numCache>
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="109"/>
@@ -3262,6 +3281,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70047991259731335"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3314,7 +3341,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Spread_Seed!$L$2:$L$110</c:f>
+              <c:f>Spread_Seed_test_calcs!$L$2:$L$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
@@ -3772,6 +3799,938 @@
         <c:crossAx val="1366721888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6036052977997471E-2"/>
+          <c:y val="7.4554024693696125E-2"/>
+          <c:w val="0.84459739390675781"/>
+          <c:h val="0.75890942393283789"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Spread_Seed (2)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Spread_Seed (2)'!$A$2:$A$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>1086.9994568500051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1086.9994568500051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1086.9994568500051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1086.9994568500051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1086.9994568500051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1449.3326091333402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1811.6657614166752</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2173.9989137000102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2173.9989137000102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2173.9989137000102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2173.9989137000102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2173.9989137000102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2898.6652182666803</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2898.6652182666803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2898.6652182666803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2898.6652182666803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2898.6652182666803</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3260.9983705500154</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3260.9983705500154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3260.9983705500154</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3623.3315228333504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3623.3315228333504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3623.3315228333504</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4347.9978274000205</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4347.9978274000205</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4347.9978274000205</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4347.9978274000205</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4347.9978274000205</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4710.3309796833555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5072.6641319666905</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5797.3304365333606</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5797.3304365333606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5797.3304365333606</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5797.3304365333606</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5797.3304365333606</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6159.6635888166957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6521.9967411000307</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7065.4964695250328</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7065.4964695250328</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7065.4964695250328</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7427.8296218083678</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7427.8296218083678</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7790.1627740917029</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7790.1627740917029</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8152.4959263750379</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8152.4959263750379</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8152.4959263750379</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>362.33315228333504</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>507.26641319666902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>652.199674110003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>797.13293502333704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>942.06619593667108</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1086.9994568500051</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1231.932717763339</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1376.8659786766732</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1521.7992395900071</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1666.732500503341</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1811.6657614166752</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1956.5990223300091</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2101.532283243343</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2391.3988050700113</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2391.3988050700113</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2391.3988050700113</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2753.7319573533464</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2753.7319573533464</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3116.0651096366814</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3116.0651096366814</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3478.398261920016</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3478.398261920016</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3478.398261920016</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4021.8979903450186</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4021.8979903450186</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4021.8979903450186</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4021.8979903450186</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4021.8979903450186</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4384.2311426283541</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4384.2311426283541</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4565.3977187700211</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4746.5642949116891</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4746.5642949116891</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4746.5642949116891</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4927.7308710533562</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5434.9972842500256</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5434.9972842500256</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5434.9972842500256</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5434.9972842500256</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5434.9972842500256</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5797.3304365333606</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6159.6635888166957</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6666.9300020133642</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6666.9300020133642</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6666.9300020133642</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6666.9300020133642</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6666.9300020133642</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7029.2631542966992</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7029.2631542966992</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7391.5963065800343</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7391.5963065800343</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7608.9961979500358</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7608.9961979500358</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7608.9961979500358</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8587.2957091150402</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8587.2957091150402</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8587.2957091150402</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8587.2957091150402</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8949.6288613983743</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8949.6288613983743</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8949.6288613983743</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8949.6288613983743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Spread_Seed (2)'!$B$2:$B$115</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="114"/>
+                <c:pt idx="0">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>880.30234998089963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>714.81470194271492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>880.30234998089963</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>714.81470194271492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>880.30234998089963</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>714.81470194271492</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>880.30234998089963</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>714.81470194271492</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>880.30234998089963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>714.81470194271492</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>880.30234998089963</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>714.81470194271492</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>963.04617399999199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>632.07087792362245</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>880.30234998089963</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>797.55852596180739</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>714.81470194271492</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>197.6658018233874</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>459.68791121717999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>365.45188941765809</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>282.70806539856574</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>114.921977804295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE2A-4F80-9665-47F33B79D898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="535983280"/>
+        <c:axId val="535981968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="535983280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535981968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="535981968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="535983280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3986,6 +4945,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6605,6 +7604,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6651,15 +8166,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>34792</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95357</xdr:rowOff>
+      <xdr:colOff>170863</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>131643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>110378</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:colOff>246449</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27747</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6688,16 +8203,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>116916</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>234845</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>18142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>577371</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>73032</xdr:rowOff>
+      <xdr:rowOff>91174</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6724,16 +8239,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>123272</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248130</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>77915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>42590</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>335643</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>151447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6760,16 +8275,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>11213</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>558694</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>456267</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>87413</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>283910</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6789,6 +8304,49 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>34793</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>110379</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100319</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3ED466-AF7C-4ABE-807B-08BFCCDEBC58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7152,11 +8710,11 @@
         <v>72</v>
       </c>
       <c r="G2">
-        <f>VLOOKUP(LEFT($C2,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" ref="G2:G33" si="0">VLOOKUP(LEFT($C2,1),$P$3:$T$10,3,FALSE)</f>
         <v>110</v>
       </c>
       <c r="H2">
-        <f>VLOOKUP(LEFT($C2,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" ref="H2:H33" si="1">VLOOKUP(LEFT($C2,1),$P$3:$T$10,4,FALSE)</f>
         <v>48</v>
       </c>
       <c r="P2" t="s">
@@ -7195,11 +8753,11 @@
         <v>72</v>
       </c>
       <c r="G3">
-        <f>VLOOKUP(LEFT($C3,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H3">
-        <f>VLOOKUP(LEFT($C3,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P3" s="1" t="s">
@@ -7238,11 +8796,11 @@
         <v>72</v>
       </c>
       <c r="G4">
-        <f>VLOOKUP(LEFT($C4,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H4">
-        <f>VLOOKUP(LEFT($C4,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -7281,11 +8839,11 @@
         <v>72</v>
       </c>
       <c r="G5">
-        <f>VLOOKUP(LEFT($C5,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H5">
-        <f>VLOOKUP(LEFT($C5,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -7324,11 +8882,11 @@
         <v>72</v>
       </c>
       <c r="G6">
-        <f>VLOOKUP(LEFT($C6,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H6">
-        <f>VLOOKUP(LEFT($C6,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -7367,11 +8925,11 @@
         <v>72</v>
       </c>
       <c r="G7">
-        <f>VLOOKUP(LEFT($C7,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H7">
-        <f>VLOOKUP(LEFT($C7,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -7410,11 +8968,11 @@
         <v>72</v>
       </c>
       <c r="G8">
-        <f>VLOOKUP(LEFT($C8,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H8">
-        <f>VLOOKUP(LEFT($C8,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -7453,11 +9011,11 @@
         <v>72</v>
       </c>
       <c r="G9">
-        <f>VLOOKUP(LEFT($C9,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H9">
-        <f>VLOOKUP(LEFT($C9,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -7496,11 +9054,11 @@
         <v>72</v>
       </c>
       <c r="G10">
-        <f>VLOOKUP(LEFT($C10,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H10">
-        <f>VLOOKUP(LEFT($C10,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -7539,11 +9097,11 @@
         <v>72</v>
       </c>
       <c r="G11">
-        <f>VLOOKUP(LEFT($C11,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H11">
-        <f>VLOOKUP(LEFT($C11,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
@@ -7567,11 +9125,11 @@
         <v>72</v>
       </c>
       <c r="G12">
-        <f>VLOOKUP(LEFT($C12,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H12">
-        <f>VLOOKUP(LEFT($C12,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
@@ -7595,11 +9153,11 @@
         <v>72</v>
       </c>
       <c r="G13">
-        <f>VLOOKUP(LEFT($C13,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="H13">
-        <f>VLOOKUP(LEFT($C13,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
@@ -7623,11 +9181,11 @@
         <v>69</v>
       </c>
       <c r="G14">
-        <f>VLOOKUP(LEFT($C14,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H14">
-        <f>VLOOKUP(LEFT($C14,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7651,11 +9209,11 @@
         <v>69</v>
       </c>
       <c r="G15">
-        <f>VLOOKUP(LEFT($C15,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H15">
-        <f>VLOOKUP(LEFT($C15,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7679,11 +9237,11 @@
         <v>69</v>
       </c>
       <c r="G16">
-        <f>VLOOKUP(LEFT($C16,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H16">
-        <f>VLOOKUP(LEFT($C16,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7707,11 +9265,11 @@
         <v>69</v>
       </c>
       <c r="G17">
-        <f>VLOOKUP(LEFT($C17,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H17">
-        <f>VLOOKUP(LEFT($C17,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7735,11 +9293,11 @@
         <v>69</v>
       </c>
       <c r="G18">
-        <f>VLOOKUP(LEFT($C18,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H18">
-        <f>VLOOKUP(LEFT($C18,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7763,11 +9321,11 @@
         <v>69</v>
       </c>
       <c r="G19">
-        <f>VLOOKUP(LEFT($C19,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H19">
-        <f>VLOOKUP(LEFT($C19,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7791,11 +9349,11 @@
         <v>69</v>
       </c>
       <c r="G20">
-        <f>VLOOKUP(LEFT($C20,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H20">
-        <f>VLOOKUP(LEFT($C20,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7819,11 +9377,11 @@
         <v>69</v>
       </c>
       <c r="G21">
-        <f>VLOOKUP(LEFT($C21,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H21">
-        <f>VLOOKUP(LEFT($C21,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7847,11 +9405,11 @@
         <v>69</v>
       </c>
       <c r="G22">
-        <f>VLOOKUP(LEFT($C22,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H22">
-        <f>VLOOKUP(LEFT($C22,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7875,11 +9433,11 @@
         <v>69</v>
       </c>
       <c r="G23">
-        <f>VLOOKUP(LEFT($C23,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H23">
-        <f>VLOOKUP(LEFT($C23,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7903,11 +9461,11 @@
         <v>69</v>
       </c>
       <c r="G24">
-        <f>VLOOKUP(LEFT($C24,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="H24">
-        <f>VLOOKUP(LEFT($C24,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
     </row>
@@ -7931,11 +9489,11 @@
         <v>76</v>
       </c>
       <c r="G25">
-        <f>VLOOKUP(LEFT($C25,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H25" t="str">
-        <f>VLOOKUP(LEFT($C25,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -7959,11 +9517,11 @@
         <v>76</v>
       </c>
       <c r="G26">
-        <f>VLOOKUP(LEFT($C26,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H26" t="str">
-        <f>VLOOKUP(LEFT($C26,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -7987,11 +9545,11 @@
         <v>76</v>
       </c>
       <c r="G27">
-        <f>VLOOKUP(LEFT($C27,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H27" t="str">
-        <f>VLOOKUP(LEFT($C27,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -8015,11 +9573,11 @@
         <v>76</v>
       </c>
       <c r="G28">
-        <f>VLOOKUP(LEFT($C28,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H28" t="str">
-        <f>VLOOKUP(LEFT($C28,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -8043,11 +9601,11 @@
         <v>76</v>
       </c>
       <c r="G29">
-        <f>VLOOKUP(LEFT($C29,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H29" t="str">
-        <f>VLOOKUP(LEFT($C29,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -8071,11 +9629,11 @@
         <v>76</v>
       </c>
       <c r="G30">
-        <f>VLOOKUP(LEFT($C30,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H30" t="str">
-        <f>VLOOKUP(LEFT($C30,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -8099,11 +9657,11 @@
         <v>76</v>
       </c>
       <c r="G31">
-        <f>VLOOKUP(LEFT($C31,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H31" t="str">
-        <f>VLOOKUP(LEFT($C31,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -8127,11 +9685,11 @@
         <v>76</v>
       </c>
       <c r="G32">
-        <f>VLOOKUP(LEFT($C32,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H32" t="str">
-        <f>VLOOKUP(LEFT($C32,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -8155,11 +9713,11 @@
         <v>76</v>
       </c>
       <c r="G33">
-        <f>VLOOKUP(LEFT($C33,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="H33" t="str">
-        <f>VLOOKUP(LEFT($C33,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4C</v>
       </c>
     </row>
@@ -8183,11 +9741,11 @@
         <v>76</v>
       </c>
       <c r="G34">
-        <f>VLOOKUP(LEFT($C34,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" ref="G34:G65" si="2">VLOOKUP(LEFT($C34,1),$P$3:$T$10,3,FALSE)</f>
         <v>114</v>
       </c>
       <c r="H34" t="str">
-        <f>VLOOKUP(LEFT($C34,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" ref="H34:H65" si="3">VLOOKUP(LEFT($C34,1),$P$3:$T$10,4,FALSE)</f>
         <v>4C</v>
       </c>
     </row>
@@ -8211,11 +9769,11 @@
         <v>76</v>
       </c>
       <c r="G35">
-        <f>VLOOKUP(LEFT($C35,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H35" t="str">
-        <f>VLOOKUP(LEFT($C35,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4C</v>
       </c>
     </row>
@@ -8239,11 +9797,11 @@
         <v>76</v>
       </c>
       <c r="G36">
-        <f>VLOOKUP(LEFT($C36,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H36" t="str">
-        <f>VLOOKUP(LEFT($C36,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4C</v>
       </c>
     </row>
@@ -8267,11 +9825,11 @@
         <v>76</v>
       </c>
       <c r="G37">
-        <f>VLOOKUP(LEFT($C37,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H37" t="str">
-        <f>VLOOKUP(LEFT($C37,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4C</v>
       </c>
     </row>
@@ -8295,11 +9853,11 @@
         <v>76</v>
       </c>
       <c r="G38">
-        <f>VLOOKUP(LEFT($C38,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="H38" t="str">
-        <f>VLOOKUP(LEFT($C38,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4C</v>
       </c>
     </row>
@@ -8323,11 +9881,11 @@
         <v>79</v>
       </c>
       <c r="G39">
-        <f>VLOOKUP(LEFT($C39,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H39" t="str">
-        <f>VLOOKUP(LEFT($C39,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8351,11 +9909,11 @@
         <v>79</v>
       </c>
       <c r="G40">
-        <f>VLOOKUP(LEFT($C40,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H40" t="str">
-        <f>VLOOKUP(LEFT($C40,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8379,11 +9937,11 @@
         <v>79</v>
       </c>
       <c r="G41">
-        <f>VLOOKUP(LEFT($C41,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H41" t="str">
-        <f>VLOOKUP(LEFT($C41,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8407,11 +9965,11 @@
         <v>79</v>
       </c>
       <c r="G42">
-        <f>VLOOKUP(LEFT($C42,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H42" t="str">
-        <f>VLOOKUP(LEFT($C42,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8435,11 +9993,11 @@
         <v>79</v>
       </c>
       <c r="G43">
-        <f>VLOOKUP(LEFT($C43,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H43" t="str">
-        <f>VLOOKUP(LEFT($C43,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8463,11 +10021,11 @@
         <v>79</v>
       </c>
       <c r="G44">
-        <f>VLOOKUP(LEFT($C44,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H44" t="str">
-        <f>VLOOKUP(LEFT($C44,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8491,11 +10049,11 @@
         <v>79</v>
       </c>
       <c r="G45">
-        <f>VLOOKUP(LEFT($C45,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H45" t="str">
-        <f>VLOOKUP(LEFT($C45,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8519,11 +10077,11 @@
         <v>79</v>
       </c>
       <c r="G46">
-        <f>VLOOKUP(LEFT($C46,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H46" t="str">
-        <f>VLOOKUP(LEFT($C46,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8547,11 +10105,11 @@
         <v>79</v>
       </c>
       <c r="G47">
-        <f>VLOOKUP(LEFT($C47,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H47" t="str">
-        <f>VLOOKUP(LEFT($C47,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8575,11 +10133,11 @@
         <v>79</v>
       </c>
       <c r="G48">
-        <f>VLOOKUP(LEFT($C48,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H48" t="str">
-        <f>VLOOKUP(LEFT($C48,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8603,11 +10161,11 @@
         <v>87</v>
       </c>
       <c r="G49">
-        <f>VLOOKUP(LEFT($C49,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H49">
-        <f>VLOOKUP(LEFT($C49,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8631,11 +10189,11 @@
         <v>87</v>
       </c>
       <c r="G50">
-        <f>VLOOKUP(LEFT($C50,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H50">
-        <f>VLOOKUP(LEFT($C50,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8659,11 +10217,11 @@
         <v>87</v>
       </c>
       <c r="G51">
-        <f>VLOOKUP(LEFT($C51,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H51">
-        <f>VLOOKUP(LEFT($C51,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8687,11 +10245,11 @@
         <v>87</v>
       </c>
       <c r="G52">
-        <f>VLOOKUP(LEFT($C52,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H52">
-        <f>VLOOKUP(LEFT($C52,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8715,11 +10273,11 @@
         <v>87</v>
       </c>
       <c r="G53">
-        <f>VLOOKUP(LEFT($C53,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H53">
-        <f>VLOOKUP(LEFT($C53,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8743,11 +10301,11 @@
         <v>87</v>
       </c>
       <c r="G54">
-        <f>VLOOKUP(LEFT($C54,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H54">
-        <f>VLOOKUP(LEFT($C54,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8771,11 +10329,11 @@
         <v>87</v>
       </c>
       <c r="G55">
-        <f>VLOOKUP(LEFT($C55,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H55">
-        <f>VLOOKUP(LEFT($C55,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8799,11 +10357,11 @@
         <v>87</v>
       </c>
       <c r="G56">
-        <f>VLOOKUP(LEFT($C56,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H56">
-        <f>VLOOKUP(LEFT($C56,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8827,11 +10385,11 @@
         <v>87</v>
       </c>
       <c r="G57">
-        <f>VLOOKUP(LEFT($C57,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H57">
-        <f>VLOOKUP(LEFT($C57,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8855,11 +10413,11 @@
         <v>87</v>
       </c>
       <c r="G58">
-        <f>VLOOKUP(LEFT($C58,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H58">
-        <f>VLOOKUP(LEFT($C58,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8883,11 +10441,11 @@
         <v>87</v>
       </c>
       <c r="G59">
-        <f>VLOOKUP(LEFT($C59,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H59">
-        <f>VLOOKUP(LEFT($C59,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8911,11 +10469,11 @@
         <v>87</v>
       </c>
       <c r="G60">
-        <f>VLOOKUP(LEFT($C60,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H60">
-        <f>VLOOKUP(LEFT($C60,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8939,11 +10497,11 @@
         <v>87</v>
       </c>
       <c r="G61">
-        <f>VLOOKUP(LEFT($C61,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="H61">
-        <f>VLOOKUP(LEFT($C61,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -8967,11 +10525,11 @@
         <v>79</v>
       </c>
       <c r="G62">
-        <f>VLOOKUP(LEFT($C62,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H62" t="str">
-        <f>VLOOKUP(LEFT($C62,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -8995,11 +10553,11 @@
         <v>79</v>
       </c>
       <c r="G63">
-        <f>VLOOKUP(LEFT($C63,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H63" t="str">
-        <f>VLOOKUP(LEFT($C63,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -9023,11 +10581,11 @@
         <v>79</v>
       </c>
       <c r="G64">
-        <f>VLOOKUP(LEFT($C64,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H64" t="str">
-        <f>VLOOKUP(LEFT($C64,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -9051,11 +10609,11 @@
         <v>79</v>
       </c>
       <c r="G65">
-        <f>VLOOKUP(LEFT($C65,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="H65" t="str">
-        <f>VLOOKUP(LEFT($C65,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4F</v>
       </c>
     </row>
@@ -9079,11 +10637,11 @@
         <v>79</v>
       </c>
       <c r="G66">
-        <f>VLOOKUP(LEFT($C66,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" ref="G66:G102" si="4">VLOOKUP(LEFT($C66,1),$P$3:$T$10,3,FALSE)</f>
         <v>117</v>
       </c>
       <c r="H66" t="str">
-        <f>VLOOKUP(LEFT($C66,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" ref="H66:H102" si="5">VLOOKUP(LEFT($C66,1),$P$3:$T$10,4,FALSE)</f>
         <v>4F</v>
       </c>
     </row>
@@ -9107,11 +10665,11 @@
         <v>79</v>
       </c>
       <c r="G67">
-        <f>VLOOKUP(LEFT($C67,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="H67" t="str">
-        <f>VLOOKUP(LEFT($C67,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4F</v>
       </c>
     </row>
@@ -9135,11 +10693,11 @@
         <v>79</v>
       </c>
       <c r="G68">
-        <f>VLOOKUP(LEFT($C68,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="H68" t="str">
-        <f>VLOOKUP(LEFT($C68,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4F</v>
       </c>
     </row>
@@ -9163,11 +10721,11 @@
         <v>79</v>
       </c>
       <c r="G69">
-        <f>VLOOKUP(LEFT($C69,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="H69" t="str">
-        <f>VLOOKUP(LEFT($C69,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4F</v>
       </c>
     </row>
@@ -9191,11 +10749,11 @@
         <v>79</v>
       </c>
       <c r="G70">
-        <f>VLOOKUP(LEFT($C70,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="H70" t="str">
-        <f>VLOOKUP(LEFT($C70,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4F</v>
       </c>
     </row>
@@ -9219,11 +10777,11 @@
         <v>79</v>
       </c>
       <c r="G71">
-        <f>VLOOKUP(LEFT($C71,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="H71" t="str">
-        <f>VLOOKUP(LEFT($C71,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4F</v>
       </c>
     </row>
@@ -9247,11 +10805,11 @@
         <v>82</v>
       </c>
       <c r="G72">
-        <f>VLOOKUP(LEFT($C72,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H72">
-        <f>VLOOKUP(LEFT($C72,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9275,11 +10833,11 @@
         <v>82</v>
       </c>
       <c r="G73">
-        <f>VLOOKUP(LEFT($C73,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H73">
-        <f>VLOOKUP(LEFT($C73,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9303,11 +10861,11 @@
         <v>82</v>
       </c>
       <c r="G74">
-        <f>VLOOKUP(LEFT($C74,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H74">
-        <f>VLOOKUP(LEFT($C74,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9331,11 +10889,11 @@
         <v>82</v>
       </c>
       <c r="G75">
-        <f>VLOOKUP(LEFT($C75,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H75">
-        <f>VLOOKUP(LEFT($C75,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9359,11 +10917,11 @@
         <v>82</v>
       </c>
       <c r="G76">
-        <f>VLOOKUP(LEFT($C76,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H76">
-        <f>VLOOKUP(LEFT($C76,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9387,11 +10945,11 @@
         <v>82</v>
       </c>
       <c r="G77">
-        <f>VLOOKUP(LEFT($C77,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H77">
-        <f>VLOOKUP(LEFT($C77,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9415,11 +10973,11 @@
         <v>82</v>
       </c>
       <c r="G78">
-        <f>VLOOKUP(LEFT($C78,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H78">
-        <f>VLOOKUP(LEFT($C78,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9443,11 +11001,11 @@
         <v>82</v>
       </c>
       <c r="G79">
-        <f>VLOOKUP(LEFT($C79,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H79">
-        <f>VLOOKUP(LEFT($C79,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9471,11 +11029,11 @@
         <v>82</v>
       </c>
       <c r="G80">
-        <f>VLOOKUP(LEFT($C80,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H80">
-        <f>VLOOKUP(LEFT($C80,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9499,11 +11057,11 @@
         <v>82</v>
       </c>
       <c r="G81">
-        <f>VLOOKUP(LEFT($C81,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H81">
-        <f>VLOOKUP(LEFT($C81,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9527,11 +11085,11 @@
         <v>82</v>
       </c>
       <c r="G82">
-        <f>VLOOKUP(LEFT($C82,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H82">
-        <f>VLOOKUP(LEFT($C82,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9555,11 +11113,11 @@
         <v>82</v>
       </c>
       <c r="G83">
-        <f>VLOOKUP(LEFT($C83,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="H83">
-        <f>VLOOKUP(LEFT($C83,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
     </row>
@@ -9583,11 +11141,11 @@
         <v>76</v>
       </c>
       <c r="G84">
-        <f>VLOOKUP(LEFT($C84,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="H84" t="str">
-        <f>VLOOKUP(LEFT($C84,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4C</v>
       </c>
     </row>
@@ -9611,11 +11169,11 @@
         <v>76</v>
       </c>
       <c r="G85">
-        <f>VLOOKUP(LEFT($C85,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="H85" t="str">
-        <f>VLOOKUP(LEFT($C85,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4C</v>
       </c>
     </row>
@@ -9639,11 +11197,11 @@
         <v>76</v>
       </c>
       <c r="G86">
-        <f>VLOOKUP(LEFT($C86,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="H86" t="str">
-        <f>VLOOKUP(LEFT($C86,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4C</v>
       </c>
     </row>
@@ -9667,11 +11225,11 @@
         <v>76</v>
       </c>
       <c r="G87">
-        <f>VLOOKUP(LEFT($C87,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="H87" t="str">
-        <f>VLOOKUP(LEFT($C87,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4C</v>
       </c>
     </row>
@@ -9695,11 +11253,11 @@
         <v>76</v>
       </c>
       <c r="G88">
-        <f>VLOOKUP(LEFT($C88,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="H88" t="str">
-        <f>VLOOKUP(LEFT($C88,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4C</v>
       </c>
     </row>
@@ -9723,11 +11281,11 @@
         <v>76</v>
       </c>
       <c r="G89">
-        <f>VLOOKUP(LEFT($C89,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="H89" t="str">
-        <f>VLOOKUP(LEFT($C89,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4C</v>
       </c>
     </row>
@@ -9751,11 +11309,11 @@
         <v>76</v>
       </c>
       <c r="G90">
-        <f>VLOOKUP(LEFT($C90,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="H90" t="str">
-        <f>VLOOKUP(LEFT($C90,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>4C</v>
       </c>
     </row>
@@ -9779,11 +11337,11 @@
         <v>68</v>
       </c>
       <c r="G91">
-        <f>VLOOKUP(LEFT($C91,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H91">
-        <f>VLOOKUP(LEFT($C91,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -9807,11 +11365,11 @@
         <v>68</v>
       </c>
       <c r="G92">
-        <f>VLOOKUP(LEFT($C92,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H92">
-        <f>VLOOKUP(LEFT($C92,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -9835,11 +11393,11 @@
         <v>68</v>
       </c>
       <c r="G93">
-        <f>VLOOKUP(LEFT($C93,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H93">
-        <f>VLOOKUP(LEFT($C93,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -9863,11 +11421,11 @@
         <v>68</v>
       </c>
       <c r="G94">
-        <f>VLOOKUP(LEFT($C94,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H94">
-        <f>VLOOKUP(LEFT($C94,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -9891,11 +11449,11 @@
         <v>68</v>
       </c>
       <c r="G95">
-        <f>VLOOKUP(LEFT($C95,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H95">
-        <f>VLOOKUP(LEFT($C95,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -9919,11 +11477,11 @@
         <v>68</v>
       </c>
       <c r="G96">
-        <f>VLOOKUP(LEFT($C96,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H96">
-        <f>VLOOKUP(LEFT($C96,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -9947,11 +11505,11 @@
         <v>68</v>
       </c>
       <c r="G97">
-        <f>VLOOKUP(LEFT($C97,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H97">
-        <f>VLOOKUP(LEFT($C97,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -9975,11 +11533,11 @@
         <v>68</v>
       </c>
       <c r="G98">
-        <f>VLOOKUP(LEFT($C98,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H98">
-        <f>VLOOKUP(LEFT($C98,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -10003,11 +11561,11 @@
         <v>68</v>
       </c>
       <c r="G99">
-        <f>VLOOKUP(LEFT($C99,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H99">
-        <f>VLOOKUP(LEFT($C99,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -10031,11 +11589,11 @@
         <v>68</v>
       </c>
       <c r="G100">
-        <f>VLOOKUP(LEFT($C100,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H100">
-        <f>VLOOKUP(LEFT($C100,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -10059,11 +11617,11 @@
         <v>68</v>
       </c>
       <c r="G101">
-        <f>VLOOKUP(LEFT($C101,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H101">
-        <f>VLOOKUP(LEFT($C101,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -10087,11 +11645,11 @@
         <v>68</v>
       </c>
       <c r="G102">
-        <f>VLOOKUP(LEFT($C102,1),$P$3:$T$10,3,FALSE)</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="H102">
-        <f>VLOOKUP(LEFT($C102,1),$P$3:$T$10,4,FALSE)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
@@ -10320,9 +11878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFE060A-47DF-4702-B9ED-44C0D400776D}">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="13" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L110"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14952,4 +16510,2998 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A38259-C067-48D7-BF9E-8057ED9D151C}">
+  <dimension ref="A1:Q110"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="13" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" customWidth="1"/>
+    <col min="10" max="11" width="12.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1086.9994568500051</v>
+      </c>
+      <c r="B2">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F2">
+        <v>72</v>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
+      </c>
+      <c r="J2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1086.9994568500051</v>
+      </c>
+      <c r="B3">
+        <v>880.30234998089963</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1.002</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>110</v>
+      </c>
+      <c r="H3">
+        <v>48</v>
+      </c>
+      <c r="J3"/>
+    </row>
+    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1086.9994568500051</v>
+      </c>
+      <c r="B4">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="F4">
+        <v>72</v>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+      <c r="J4"/>
+    </row>
+    <row r="5" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1086.9994568500051</v>
+      </c>
+      <c r="B5">
+        <v>714.81470194271492</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.004</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+      <c r="G5">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="J5"/>
+    </row>
+    <row r="6" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1086.9994568500051</v>
+      </c>
+      <c r="B6">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="F6">
+        <v>72</v>
+      </c>
+      <c r="G6">
+        <v>110</v>
+      </c>
+      <c r="H6">
+        <v>48</v>
+      </c>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1449.3326091333402</v>
+      </c>
+      <c r="B7">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1.006</v>
+      </c>
+      <c r="F7">
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>110</v>
+      </c>
+      <c r="H7">
+        <v>48</v>
+      </c>
+      <c r="J7"/>
+    </row>
+    <row r="8" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1811.6657614166752</v>
+      </c>
+      <c r="B8">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="F8">
+        <v>72</v>
+      </c>
+      <c r="G8">
+        <v>110</v>
+      </c>
+      <c r="H8">
+        <v>48</v>
+      </c>
+      <c r="J8"/>
+    </row>
+    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2173.9989137000102</v>
+      </c>
+      <c r="B9">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1.008</v>
+      </c>
+      <c r="F9">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>110</v>
+      </c>
+      <c r="H9">
+        <v>48</v>
+      </c>
+      <c r="J9"/>
+    </row>
+    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2173.9989137000102</v>
+      </c>
+      <c r="B10">
+        <v>880.30234998089963</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="F10">
+        <v>72</v>
+      </c>
+      <c r="G10">
+        <v>110</v>
+      </c>
+      <c r="H10">
+        <v>48</v>
+      </c>
+      <c r="J10"/>
+    </row>
+    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2173.9989137000102</v>
+      </c>
+      <c r="B11">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1.01</v>
+      </c>
+      <c r="F11">
+        <v>72</v>
+      </c>
+      <c r="G11">
+        <v>110</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="J11"/>
+    </row>
+    <row r="12" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2173.9989137000102</v>
+      </c>
+      <c r="B12">
+        <v>714.81470194271492</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="F12">
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <v>110</v>
+      </c>
+      <c r="H12">
+        <v>48</v>
+      </c>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2173.9989137000102</v>
+      </c>
+      <c r="B13">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.012</v>
+      </c>
+      <c r="F13">
+        <v>72</v>
+      </c>
+      <c r="G13">
+        <v>110</v>
+      </c>
+      <c r="H13">
+        <v>48</v>
+      </c>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2898.6652182666803</v>
+      </c>
+      <c r="B14">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="F14">
+        <v>69</v>
+      </c>
+      <c r="G14">
+        <v>105</v>
+      </c>
+      <c r="H14">
+        <v>45</v>
+      </c>
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2898.6652182666803</v>
+      </c>
+      <c r="B15">
+        <v>880.30234998089963</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1.014</v>
+      </c>
+      <c r="F15">
+        <v>69</v>
+      </c>
+      <c r="G15">
+        <v>105</v>
+      </c>
+      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2898.6652182666803</v>
+      </c>
+      <c r="B16">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F16">
+        <v>69</v>
+      </c>
+      <c r="G16">
+        <v>105</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+      <c r="J16"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2898.6652182666803</v>
+      </c>
+      <c r="B17">
+        <v>714.81470194271492</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1.016</v>
+      </c>
+      <c r="F17">
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <v>105</v>
+      </c>
+      <c r="H17">
+        <v>45</v>
+      </c>
+      <c r="J17"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2898.6652182666803</v>
+      </c>
+      <c r="B18">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="F18">
+        <v>69</v>
+      </c>
+      <c r="G18">
+        <v>105</v>
+      </c>
+      <c r="H18">
+        <v>45</v>
+      </c>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>3260.9983705500154</v>
+      </c>
+      <c r="B19">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1.018</v>
+      </c>
+      <c r="F19">
+        <v>69</v>
+      </c>
+      <c r="G19">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>45</v>
+      </c>
+      <c r="J19"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>3260.9983705500154</v>
+      </c>
+      <c r="B20">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="F20">
+        <v>69</v>
+      </c>
+      <c r="G20">
+        <v>105</v>
+      </c>
+      <c r="H20">
+        <v>45</v>
+      </c>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>3260.9983705500154</v>
+      </c>
+      <c r="B21">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1.02</v>
+      </c>
+      <c r="F21">
+        <v>69</v>
+      </c>
+      <c r="G21">
+        <v>105</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3623.3315228333504</v>
+      </c>
+      <c r="B22">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="F22">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <v>45</v>
+      </c>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>3623.3315228333504</v>
+      </c>
+      <c r="B23">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1.022</v>
+      </c>
+      <c r="F23">
+        <v>69</v>
+      </c>
+      <c r="G23">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>45</v>
+      </c>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>3623.3315228333504</v>
+      </c>
+      <c r="B24">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="F24">
+        <v>69</v>
+      </c>
+      <c r="G24">
+        <v>105</v>
+      </c>
+      <c r="H24">
+        <v>45</v>
+      </c>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4347.9978274000205</v>
+      </c>
+      <c r="B25">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>1.024</v>
+      </c>
+      <c r="F25">
+        <v>76</v>
+      </c>
+      <c r="G25">
+        <v>114</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>4347.9978274000205</v>
+      </c>
+      <c r="B26">
+        <v>880.30234998089963</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F26">
+        <v>76</v>
+      </c>
+      <c r="G26">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>4347.9978274000205</v>
+      </c>
+      <c r="B27">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1.026</v>
+      </c>
+      <c r="F27">
+        <v>76</v>
+      </c>
+      <c r="G27">
+        <v>114</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>4347.9978274000205</v>
+      </c>
+      <c r="B28">
+        <v>714.81470194271492</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="F28">
+        <v>76</v>
+      </c>
+      <c r="G28">
+        <v>114</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4347.9978274000205</v>
+      </c>
+      <c r="B29">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1.028</v>
+      </c>
+      <c r="F29">
+        <v>76</v>
+      </c>
+      <c r="G29">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>4710.3309796833555</v>
+      </c>
+      <c r="B30">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="F30">
+        <v>76</v>
+      </c>
+      <c r="G30">
+        <v>114</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>5072.6641319666905</v>
+      </c>
+      <c r="B31">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1.03</v>
+      </c>
+      <c r="F31">
+        <v>76</v>
+      </c>
+      <c r="G31">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>5797.3304365333606</v>
+      </c>
+      <c r="B32">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="F32">
+        <v>76</v>
+      </c>
+      <c r="G32">
+        <v>114</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32"/>
+    </row>
+    <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>5797.3304365333606</v>
+      </c>
+      <c r="B33">
+        <v>880.30234998089963</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>1.032</v>
+      </c>
+      <c r="F33">
+        <v>76</v>
+      </c>
+      <c r="G33">
+        <v>114</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33"/>
+    </row>
+    <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>5797.3304365333606</v>
+      </c>
+      <c r="B34">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="F34">
+        <v>76</v>
+      </c>
+      <c r="G34">
+        <v>114</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34"/>
+    </row>
+    <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>5797.3304365333606</v>
+      </c>
+      <c r="B35">
+        <v>714.81470194271492</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>1.034</v>
+      </c>
+      <c r="F35">
+        <v>76</v>
+      </c>
+      <c r="G35">
+        <v>114</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>5797.3304365333606</v>
+      </c>
+      <c r="B36">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="F36">
+        <v>76</v>
+      </c>
+      <c r="G36">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36"/>
+    </row>
+    <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>6159.6635888166957</v>
+      </c>
+      <c r="B37">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>1.036</v>
+      </c>
+      <c r="F37">
+        <v>76</v>
+      </c>
+      <c r="G37">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37"/>
+    </row>
+    <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>6521.9967411000307</v>
+      </c>
+      <c r="B38">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>1.0369999999999999</v>
+      </c>
+      <c r="F38">
+        <v>76</v>
+      </c>
+      <c r="G38">
+        <v>114</v>
+      </c>
+      <c r="H38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38"/>
+    </row>
+    <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>7065.4964695250328</v>
+      </c>
+      <c r="B39">
+        <v>880.30234998089963</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>1.038</v>
+      </c>
+      <c r="F39">
+        <v>79</v>
+      </c>
+      <c r="G39">
+        <v>117</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39"/>
+    </row>
+    <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>7065.4964695250328</v>
+      </c>
+      <c r="B40">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="F40">
+        <v>79</v>
+      </c>
+      <c r="G40">
+        <v>117</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>7065.4964695250328</v>
+      </c>
+      <c r="B41">
+        <v>714.81470194271492</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>1.04</v>
+      </c>
+      <c r="F41">
+        <v>79</v>
+      </c>
+      <c r="G41">
+        <v>117</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>7427.8296218083678</v>
+      </c>
+      <c r="B42">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="F42">
+        <v>79</v>
+      </c>
+      <c r="G42">
+        <v>117</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>7427.8296218083678</v>
+      </c>
+      <c r="B43">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>1.042</v>
+      </c>
+      <c r="F43">
+        <v>79</v>
+      </c>
+      <c r="G43">
+        <v>117</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>7790.1627740917029</v>
+      </c>
+      <c r="B44">
+        <v>963.04617399999199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="F44">
+        <v>79</v>
+      </c>
+      <c r="G44">
+        <v>117</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>7790.1627740917029</v>
+      </c>
+      <c r="B45">
+        <v>632.07087792362245</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1.044</v>
+      </c>
+      <c r="F45">
+        <v>79</v>
+      </c>
+      <c r="G45">
+        <v>117</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>8152.4959263750379</v>
+      </c>
+      <c r="B46">
+        <v>880.30234998089963</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="F46">
+        <v>79</v>
+      </c>
+      <c r="G46">
+        <v>117</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>8152.4959263750379</v>
+      </c>
+      <c r="B47">
+        <v>797.55852596180739</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>1.046</v>
+      </c>
+      <c r="F47">
+        <v>79</v>
+      </c>
+      <c r="G47">
+        <v>117</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>8152.4959263750379</v>
+      </c>
+      <c r="B48">
+        <v>714.81470194271492</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="F48">
+        <v>79</v>
+      </c>
+      <c r="G48">
+        <v>117</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48"/>
+    </row>
+    <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>362.33315228333504</v>
+      </c>
+      <c r="B49">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>2.048</v>
+      </c>
+      <c r="F49">
+        <v>87</v>
+      </c>
+      <c r="G49">
+        <v>127</v>
+      </c>
+      <c r="H49">
+        <v>57</v>
+      </c>
+      <c r="J49"/>
+    </row>
+    <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>507.26641319666902</v>
+      </c>
+      <c r="B50">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="F50">
+        <v>87</v>
+      </c>
+      <c r="G50">
+        <v>127</v>
+      </c>
+      <c r="H50">
+        <v>57</v>
+      </c>
+      <c r="J50"/>
+    </row>
+    <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>652.199674110003</v>
+      </c>
+      <c r="B51">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F51">
+        <v>87</v>
+      </c>
+      <c r="G51">
+        <v>127</v>
+      </c>
+      <c r="H51">
+        <v>57</v>
+      </c>
+      <c r="J51"/>
+    </row>
+    <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>797.13293502333704</v>
+      </c>
+      <c r="B52">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="F52">
+        <v>87</v>
+      </c>
+      <c r="G52">
+        <v>127</v>
+      </c>
+      <c r="H52">
+        <v>57</v>
+      </c>
+      <c r="J52"/>
+    </row>
+    <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>942.06619593667108</v>
+      </c>
+      <c r="B53">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>6</v>
+      </c>
+      <c r="E53">
+        <v>2.052</v>
+      </c>
+      <c r="F53">
+        <v>87</v>
+      </c>
+      <c r="G53">
+        <v>127</v>
+      </c>
+      <c r="H53">
+        <v>57</v>
+      </c>
+      <c r="J53"/>
+    </row>
+    <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1086.9994568500051</v>
+      </c>
+      <c r="B54">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="F54">
+        <v>87</v>
+      </c>
+      <c r="G54">
+        <v>127</v>
+      </c>
+      <c r="H54">
+        <v>57</v>
+      </c>
+      <c r="J54"/>
+    </row>
+    <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1231.932717763339</v>
+      </c>
+      <c r="B55">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="F55">
+        <v>87</v>
+      </c>
+      <c r="G55">
+        <v>127</v>
+      </c>
+      <c r="H55">
+        <v>57</v>
+      </c>
+      <c r="J55"/>
+    </row>
+    <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1376.8659786766732</v>
+      </c>
+      <c r="B56">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>2.0550000000000002</v>
+      </c>
+      <c r="F56">
+        <v>87</v>
+      </c>
+      <c r="G56">
+        <v>127</v>
+      </c>
+      <c r="H56">
+        <v>57</v>
+      </c>
+      <c r="J56"/>
+    </row>
+    <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1521.7992395900071</v>
+      </c>
+      <c r="B57">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>2.056</v>
+      </c>
+      <c r="F57">
+        <v>87</v>
+      </c>
+      <c r="G57">
+        <v>127</v>
+      </c>
+      <c r="H57">
+        <v>57</v>
+      </c>
+      <c r="J57"/>
+    </row>
+    <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1666.732500503341</v>
+      </c>
+      <c r="B58">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="F58">
+        <v>87</v>
+      </c>
+      <c r="G58">
+        <v>127</v>
+      </c>
+      <c r="H58">
+        <v>57</v>
+      </c>
+      <c r="J58"/>
+    </row>
+    <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1811.6657614166752</v>
+      </c>
+      <c r="B59">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>2.0579999999999998</v>
+      </c>
+      <c r="F59">
+        <v>87</v>
+      </c>
+      <c r="G59">
+        <v>127</v>
+      </c>
+      <c r="H59">
+        <v>57</v>
+      </c>
+      <c r="J59"/>
+    </row>
+    <row r="60" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1956.5990223300091</v>
+      </c>
+      <c r="B60">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="F60">
+        <v>87</v>
+      </c>
+      <c r="G60">
+        <v>127</v>
+      </c>
+      <c r="H60">
+        <v>57</v>
+      </c>
+      <c r="J60"/>
+    </row>
+    <row r="61" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2101.532283243343</v>
+      </c>
+      <c r="B61">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <v>2.06</v>
+      </c>
+      <c r="F61">
+        <v>87</v>
+      </c>
+      <c r="G61">
+        <v>127</v>
+      </c>
+      <c r="H61">
+        <v>57</v>
+      </c>
+      <c r="J61"/>
+    </row>
+    <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2391.3988050700113</v>
+      </c>
+      <c r="B62">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="F62">
+        <v>79</v>
+      </c>
+      <c r="G62">
+        <v>117</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2391.3988050700113</v>
+      </c>
+      <c r="B63">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="F63">
+        <v>79</v>
+      </c>
+      <c r="G63">
+        <v>117</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2391.3988050700113</v>
+      </c>
+      <c r="B64">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>2.0630000000000002</v>
+      </c>
+      <c r="F64">
+        <v>79</v>
+      </c>
+      <c r="G64">
+        <v>117</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2753.7319573533464</v>
+      </c>
+      <c r="B65">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="F65">
+        <v>79</v>
+      </c>
+      <c r="G65">
+        <v>117</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2753.7319573533464</v>
+      </c>
+      <c r="B66">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="F66">
+        <v>79</v>
+      </c>
+      <c r="G66">
+        <v>117</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>3116.0651096366814</v>
+      </c>
+      <c r="B67">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="F67">
+        <v>79</v>
+      </c>
+      <c r="G67">
+        <v>117</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67"/>
+    </row>
+    <row r="68" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>3116.0651096366814</v>
+      </c>
+      <c r="B68">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="F68">
+        <v>79</v>
+      </c>
+      <c r="G68">
+        <v>117</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68"/>
+    </row>
+    <row r="69" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>3478.398261920016</v>
+      </c>
+      <c r="B69">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="F69">
+        <v>79</v>
+      </c>
+      <c r="G69">
+        <v>117</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69"/>
+    </row>
+    <row r="70" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>3478.398261920016</v>
+      </c>
+      <c r="B70">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>2.069</v>
+      </c>
+      <c r="F70">
+        <v>79</v>
+      </c>
+      <c r="G70">
+        <v>117</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70"/>
+    </row>
+    <row r="71" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>3478.398261920016</v>
+      </c>
+      <c r="B71">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F71">
+        <v>79</v>
+      </c>
+      <c r="G71">
+        <v>117</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71"/>
+    </row>
+    <row r="72" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>4021.8979903450186</v>
+      </c>
+      <c r="B72">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>8</v>
+      </c>
+      <c r="E72">
+        <v>2.0710000000000002</v>
+      </c>
+      <c r="F72">
+        <v>82</v>
+      </c>
+      <c r="G72">
+        <v>122</v>
+      </c>
+      <c r="H72">
+        <v>52</v>
+      </c>
+      <c r="J72"/>
+    </row>
+    <row r="73" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>4021.8979903450186</v>
+      </c>
+      <c r="B73">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>8</v>
+      </c>
+      <c r="E73">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="F73">
+        <v>82</v>
+      </c>
+      <c r="G73">
+        <v>122</v>
+      </c>
+      <c r="H73">
+        <v>52</v>
+      </c>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>4021.8979903450186</v>
+      </c>
+      <c r="B74">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>2.073</v>
+      </c>
+      <c r="F74">
+        <v>82</v>
+      </c>
+      <c r="G74">
+        <v>122</v>
+      </c>
+      <c r="H74">
+        <v>52</v>
+      </c>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>4021.8979903450186</v>
+      </c>
+      <c r="B75">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="F75">
+        <v>82</v>
+      </c>
+      <c r="G75">
+        <v>122</v>
+      </c>
+      <c r="H75">
+        <v>52</v>
+      </c>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>4021.8979903450186</v>
+      </c>
+      <c r="B76">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="F76">
+        <v>82</v>
+      </c>
+      <c r="G76">
+        <v>122</v>
+      </c>
+      <c r="H76">
+        <v>52</v>
+      </c>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>4384.2311426283541</v>
+      </c>
+      <c r="B77">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77">
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="F77">
+        <v>82</v>
+      </c>
+      <c r="G77">
+        <v>122</v>
+      </c>
+      <c r="H77">
+        <v>52</v>
+      </c>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>4384.2311426283541</v>
+      </c>
+      <c r="B78">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <v>2.077</v>
+      </c>
+      <c r="F78">
+        <v>82</v>
+      </c>
+      <c r="G78">
+        <v>122</v>
+      </c>
+      <c r="H78">
+        <v>52</v>
+      </c>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>4565.3977187700211</v>
+      </c>
+      <c r="B79">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="F79">
+        <v>82</v>
+      </c>
+      <c r="G79">
+        <v>122</v>
+      </c>
+      <c r="H79">
+        <v>52</v>
+      </c>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>4746.5642949116891</v>
+      </c>
+      <c r="B80">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80">
+        <v>2.0790000000000002</v>
+      </c>
+      <c r="F80">
+        <v>82</v>
+      </c>
+      <c r="G80">
+        <v>122</v>
+      </c>
+      <c r="H80">
+        <v>52</v>
+      </c>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>4746.5642949116891</v>
+      </c>
+      <c r="B81">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>2.08</v>
+      </c>
+      <c r="F81">
+        <v>82</v>
+      </c>
+      <c r="G81">
+        <v>122</v>
+      </c>
+      <c r="H81">
+        <v>52</v>
+      </c>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>4746.5642949116891</v>
+      </c>
+      <c r="B82">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>2.081</v>
+      </c>
+      <c r="F82">
+        <v>82</v>
+      </c>
+      <c r="G82">
+        <v>122</v>
+      </c>
+      <c r="H82">
+        <v>52</v>
+      </c>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>4927.7308710533562</v>
+      </c>
+      <c r="B83">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <v>2.0819999999999999</v>
+      </c>
+      <c r="F83">
+        <v>82</v>
+      </c>
+      <c r="G83">
+        <v>122</v>
+      </c>
+      <c r="H83">
+        <v>52</v>
+      </c>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>5434.9972842500256</v>
+      </c>
+      <c r="B84">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+      <c r="E84">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="F84">
+        <v>76</v>
+      </c>
+      <c r="G84">
+        <v>114</v>
+      </c>
+      <c r="H84" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>5434.9972842500256</v>
+      </c>
+      <c r="B85">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="F85">
+        <v>76</v>
+      </c>
+      <c r="G85">
+        <v>114</v>
+      </c>
+      <c r="H85" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>5434.9972842500256</v>
+      </c>
+      <c r="B86">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>9</v>
+      </c>
+      <c r="E86">
+        <v>2.085</v>
+      </c>
+      <c r="F86">
+        <v>76</v>
+      </c>
+      <c r="G86">
+        <v>114</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>5434.9972842500256</v>
+      </c>
+      <c r="B87">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <v>9</v>
+      </c>
+      <c r="E87">
+        <v>2.0859999999999999</v>
+      </c>
+      <c r="F87">
+        <v>76</v>
+      </c>
+      <c r="G87">
+        <v>114</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>5434.9972842500256</v>
+      </c>
+      <c r="B88">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="F88">
+        <v>76</v>
+      </c>
+      <c r="G88">
+        <v>114</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>5797.3304365333606</v>
+      </c>
+      <c r="B89">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <v>9</v>
+      </c>
+      <c r="E89">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="F89">
+        <v>76</v>
+      </c>
+      <c r="G89">
+        <v>114</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>6159.6635888166957</v>
+      </c>
+      <c r="B90">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>2.089</v>
+      </c>
+      <c r="F90">
+        <v>76</v>
+      </c>
+      <c r="G90">
+        <v>114</v>
+      </c>
+      <c r="H90" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>6666.9300020133642</v>
+      </c>
+      <c r="B91">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <v>2.09</v>
+      </c>
+      <c r="F91">
+        <v>68</v>
+      </c>
+      <c r="G91">
+        <v>104</v>
+      </c>
+      <c r="H91">
+        <v>44</v>
+      </c>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>6666.9300020133642</v>
+      </c>
+      <c r="B92">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="F92">
+        <v>68</v>
+      </c>
+      <c r="G92">
+        <v>104</v>
+      </c>
+      <c r="H92">
+        <v>44</v>
+      </c>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>6666.9300020133642</v>
+      </c>
+      <c r="B93">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <v>2.0920000000000001</v>
+      </c>
+      <c r="F93">
+        <v>68</v>
+      </c>
+      <c r="G93">
+        <v>104</v>
+      </c>
+      <c r="H93">
+        <v>44</v>
+      </c>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>6666.9300020133642</v>
+      </c>
+      <c r="B94">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <v>2.093</v>
+      </c>
+      <c r="F94">
+        <v>68</v>
+      </c>
+      <c r="G94">
+        <v>104</v>
+      </c>
+      <c r="H94">
+        <v>44</v>
+      </c>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>6666.9300020133642</v>
+      </c>
+      <c r="B95">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95">
+        <v>2.0939999999999999</v>
+      </c>
+      <c r="F95">
+        <v>68</v>
+      </c>
+      <c r="G95">
+        <v>104</v>
+      </c>
+      <c r="H95">
+        <v>44</v>
+      </c>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>7029.2631542966992</v>
+      </c>
+      <c r="B96">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+      <c r="E96">
+        <v>2.0950000000000002</v>
+      </c>
+      <c r="F96">
+        <v>68</v>
+      </c>
+      <c r="G96">
+        <v>104</v>
+      </c>
+      <c r="H96">
+        <v>44</v>
+      </c>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>7029.2631542966992</v>
+      </c>
+      <c r="B97">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="F97">
+        <v>68</v>
+      </c>
+      <c r="G97">
+        <v>104</v>
+      </c>
+      <c r="H97">
+        <v>44</v>
+      </c>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>7391.5963065800343</v>
+      </c>
+      <c r="B98">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="E98">
+        <v>2.097</v>
+      </c>
+      <c r="F98">
+        <v>68</v>
+      </c>
+      <c r="G98">
+        <v>104</v>
+      </c>
+      <c r="H98">
+        <v>44</v>
+      </c>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>7391.5963065800343</v>
+      </c>
+      <c r="B99">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="F99">
+        <v>68</v>
+      </c>
+      <c r="G99">
+        <v>104</v>
+      </c>
+      <c r="H99">
+        <v>44</v>
+      </c>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>7608.9961979500358</v>
+      </c>
+      <c r="B100">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>2.0990000000000002</v>
+      </c>
+      <c r="F100">
+        <v>68</v>
+      </c>
+      <c r="G100">
+        <v>104</v>
+      </c>
+      <c r="H100">
+        <v>44</v>
+      </c>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>7608.9961979500358</v>
+      </c>
+      <c r="B101">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>2.1</v>
+      </c>
+      <c r="F101">
+        <v>68</v>
+      </c>
+      <c r="G101">
+        <v>104</v>
+      </c>
+      <c r="H101">
+        <v>44</v>
+      </c>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>7608.9961979500358</v>
+      </c>
+      <c r="B102">
+        <v>197.6658018233874</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>2.101</v>
+      </c>
+      <c r="F102">
+        <v>68</v>
+      </c>
+      <c r="G102">
+        <v>104</v>
+      </c>
+      <c r="H102">
+        <v>44</v>
+      </c>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>8587.2957091150402</v>
+      </c>
+      <c r="B103">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="F103">
+        <v>33</v>
+      </c>
+      <c r="G103">
+        <v>41</v>
+      </c>
+      <c r="H103">
+        <v>21</v>
+      </c>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>8587.2957091150402</v>
+      </c>
+      <c r="B104">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104">
+        <v>11</v>
+      </c>
+      <c r="E104">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="F104">
+        <v>33</v>
+      </c>
+      <c r="G104">
+        <v>41</v>
+      </c>
+      <c r="H104">
+        <v>21</v>
+      </c>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>8587.2957091150402</v>
+      </c>
+      <c r="B105">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105">
+        <v>11</v>
+      </c>
+      <c r="E105">
+        <v>2.1040000000000001</v>
+      </c>
+      <c r="F105">
+        <v>33</v>
+      </c>
+      <c r="G105">
+        <v>41</v>
+      </c>
+      <c r="H105">
+        <v>21</v>
+      </c>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>8587.2957091150402</v>
+      </c>
+      <c r="B106">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106">
+        <v>11</v>
+      </c>
+      <c r="E106">
+        <v>2.105</v>
+      </c>
+      <c r="F106">
+        <v>33</v>
+      </c>
+      <c r="G106">
+        <v>41</v>
+      </c>
+      <c r="H106">
+        <v>21</v>
+      </c>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>8949.6288613983743</v>
+      </c>
+      <c r="B107">
+        <v>459.68791121717999</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107">
+        <v>11</v>
+      </c>
+      <c r="E107">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="F107">
+        <v>33</v>
+      </c>
+      <c r="G107">
+        <v>41</v>
+      </c>
+      <c r="H107">
+        <v>21</v>
+      </c>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>8949.6288613983743</v>
+      </c>
+      <c r="B108">
+        <v>365.45188941765809</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+      <c r="E108">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="F108">
+        <v>33</v>
+      </c>
+      <c r="G108">
+        <v>41</v>
+      </c>
+      <c r="H108">
+        <v>21</v>
+      </c>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>8949.6288613983743</v>
+      </c>
+      <c r="B109">
+        <v>282.70806539856574</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109">
+        <v>11</v>
+      </c>
+      <c r="E109">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="F109">
+        <v>33</v>
+      </c>
+      <c r="G109">
+        <v>41</v>
+      </c>
+      <c r="H109">
+        <v>21</v>
+      </c>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>8949.6288613983743</v>
+      </c>
+      <c r="B110">
+        <v>114.921977804295</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110">
+        <v>11</v>
+      </c>
+      <c r="E110">
+        <v>2.109</v>
+      </c>
+      <c r="F110">
+        <v>33</v>
+      </c>
+      <c r="G110">
+        <v>41</v>
+      </c>
+      <c r="H110">
+        <v>21</v>
+      </c>
+      <c r="J110"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>